--- a/docs/Envio_datos/formato_trama.xlsx
+++ b/docs/Envio_datos/formato_trama.xlsx
@@ -5,19 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ProMatix\Dropbox\TAREAS\secretaria\est_monit_rio_jachal\Software Datalogger\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ProMatix\Dropbox\TAREAS\secretaria\est_monit_rio_jachal\Software Datalogger\docs\Envio_datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B096F5F-3162-45BF-A90E-BF148F9ED720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B796B9-6423-459B-8FE5-AE1FB8F1B83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reportes" sheetId="3" r:id="rId1"/>
-    <sheet name="Decodificador ID 01" sheetId="4" r:id="rId2"/>
-    <sheet name="Decodificador ID 03" sheetId="5" r:id="rId3"/>
-    <sheet name="Variables" sheetId="1" r:id="rId4"/>
-    <sheet name="Tablas" sheetId="2" r:id="rId5"/>
+    <sheet name="Decodificador ID 04" sheetId="6" r:id="rId2"/>
+    <sheet name="Variables" sheetId="1" r:id="rId3"/>
+    <sheet name="Tablas" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="140">
   <si>
     <t>Sensor</t>
   </si>
@@ -212,9 +211,6 @@
     <t>0,005 ~ 7</t>
   </si>
   <si>
-    <t>Reporte #1</t>
-  </si>
-  <si>
     <t>ReportID</t>
   </si>
   <si>
@@ -266,9 +262,6 @@
     <t>(V-10) * 100</t>
   </si>
   <si>
-    <t>FBU / 10</t>
-  </si>
-  <si>
     <t>DataReport1</t>
   </si>
   <si>
@@ -362,21 +355,9 @@
     <t>Turbidez [ultima-3]</t>
   </si>
   <si>
-    <t>Alerta</t>
-  </si>
-  <si>
-    <t>Apertura = 0x41</t>
-  </si>
-  <si>
     <t>int16</t>
   </si>
   <si>
-    <t>Reporte #2</t>
-  </si>
-  <si>
-    <t>(Implementacion Pendiente)</t>
-  </si>
-  <si>
     <t>Payload</t>
   </si>
   <si>
@@ -410,18 +391,12 @@
     <t>largo</t>
   </si>
   <si>
-    <t>Reporte #3</t>
-  </si>
-  <si>
     <t>Timestamp [ultima]</t>
   </si>
   <si>
     <t>uint32</t>
   </si>
   <si>
-    <t>031461c3233011111221133114411551211222222332244225523113322333333443355341144224433444444554</t>
-  </si>
-  <si>
     <t>largo [bytes]</t>
   </si>
   <si>
@@ -443,7 +418,43 @@
     <t>(V-10) * 10</t>
   </si>
   <si>
-    <t>032561f983300003000500fc004d00000003000500df004f00000003000500c9005000000003000500b500510000</t>
+    <t>Turdidez status</t>
+  </si>
+  <si>
+    <t>1 = Se requiere mantenimiento</t>
+  </si>
+  <si>
+    <t>bit 15 (mas significativo)</t>
+  </si>
+  <si>
+    <t>bits 14-0</t>
+  </si>
+  <si>
+    <t>corriente en el motor [mA]</t>
+  </si>
+  <si>
+    <t>Alerta de apertura</t>
+  </si>
+  <si>
+    <t>0x41</t>
+  </si>
+  <si>
+    <t>Reporte #4</t>
+  </si>
+  <si>
+    <t>Estado de OBS501</t>
+  </si>
+  <si>
+    <t>Corriente de motor</t>
+  </si>
+  <si>
+    <t>mA</t>
+  </si>
+  <si>
+    <t>¿Se requiere mantenimiento?</t>
+  </si>
+  <si>
+    <t>042561f983300003000500fc004d00000003000500df004f00000003000500c9005000000003000500b50051000000FF</t>
   </si>
 </sst>
 </file>
@@ -514,7 +525,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -869,6 +880,136 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -880,7 +1021,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -893,10 +1034,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="5" applyBorder="1"/>
@@ -977,6 +1114,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1365,10 +1535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M69"/>
+  <dimension ref="A2:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1377,1351 +1547,491 @@
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="H1" s="64" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="82"/>
+      <c r="H2" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="7">
+        <f>C30</f>
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="H2" s="4" t="s">
+      <c r="J4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="50">
+        <v>1</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A8" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="53">
+        <v>4</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="50">
+        <v>2</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="53">
+        <v>2</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="50">
+        <v>2</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+      <c r="D15" s="56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A18" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="53">
+        <v>2</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="50">
+        <v>2</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2</v>
+      </c>
+      <c r="D20" s="56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A23" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="53">
+        <v>2</v>
+      </c>
+      <c r="D23" s="54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="50">
+        <v>2</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A26" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="5">
+        <v>2</v>
+      </c>
+      <c r="D26" s="57" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2</v>
+      </c>
+      <c r="D27" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="47"/>
+      <c r="F27" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" s="76"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A28" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="7">
+        <v>2</v>
+      </c>
+      <c r="D28" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" s="57" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A29" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="63">
+        <v>2</v>
+      </c>
+      <c r="D29" s="64"/>
+      <c r="F29" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" s="54" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="B30" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="59">
+        <f>SUM(C7:C29)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A35" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="78"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="51" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A37" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="H3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="67"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="7">
-        <f>C31</f>
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="5">
-        <v>2</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="5">
-        <v>2</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="5">
-        <v>2</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="5">
-        <v>2</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="5">
-        <v>2</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="5">
-        <v>2</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="5">
-        <v>2</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="5">
-        <v>2</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="5">
-        <v>2</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="5">
-        <v>2</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="5">
-        <v>2</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="5">
-        <v>2</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="5">
-        <v>2</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="5">
-        <v>2</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="5">
-        <v>2</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="5">
-        <v>2</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="5">
-        <v>2</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="5">
-        <v>2</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="5">
-        <v>2</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="5">
-        <v>2</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="B31" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="11">
-        <f>SUM(C10:C30)</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="B33" s="67"/>
-      <c r="C33" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="7">
-        <f>C39</f>
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="5">
-        <v>1</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="B39" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="11">
-        <f>SUM(C38:C38)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="66" t="s">
-        <v>124</v>
-      </c>
-      <c r="B42" s="67"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="7">
-        <f>C69</f>
-        <v>45</v>
-      </c>
-      <c r="C44" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="69"/>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A46" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="D46" s="52" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="B47" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" s="54">
-        <v>1</v>
-      </c>
-      <c r="D47" s="55" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A48" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="B48" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="C48" s="57">
-        <v>4</v>
-      </c>
-      <c r="D48" s="58" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="B49" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="54">
-        <v>2</v>
-      </c>
-      <c r="D49" s="55" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50" s="5">
-        <v>2</v>
-      </c>
-      <c r="D50" s="60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C51" s="5">
-        <v>2</v>
-      </c>
-      <c r="D51" s="61" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C52" s="5">
-        <v>2</v>
-      </c>
-      <c r="D52" s="61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A53" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="C53" s="57">
-        <v>2</v>
-      </c>
-      <c r="D53" s="58" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="B54" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="C54" s="54">
-        <v>2</v>
-      </c>
-      <c r="D54" s="55" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C55" s="5">
-        <v>2</v>
-      </c>
-      <c r="D55" s="60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C56" s="5">
-        <v>2</v>
-      </c>
-      <c r="D56" s="61" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C57" s="5">
-        <v>2</v>
-      </c>
-      <c r="D57" s="61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A58" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="B58" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="C58" s="57">
-        <v>2</v>
-      </c>
-      <c r="D58" s="58" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="B59" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="C59" s="54">
-        <v>2</v>
-      </c>
-      <c r="D59" s="55" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C60" s="5">
-        <v>2</v>
-      </c>
-      <c r="D60" s="60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C61" s="5">
-        <v>2</v>
-      </c>
-      <c r="D61" s="61" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C62" s="5">
-        <v>2</v>
-      </c>
-      <c r="D62" s="61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A63" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="B63" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="C63" s="57">
-        <v>2</v>
-      </c>
-      <c r="D63" s="58" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="B64" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="C64" s="54">
-        <v>2</v>
-      </c>
-      <c r="D64" s="55" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C65" s="5">
-        <v>2</v>
-      </c>
-      <c r="D65" s="60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="59" t="s">
-        <v>105</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C66" s="5">
-        <v>2</v>
-      </c>
-      <c r="D66" s="61" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C67" s="5">
-        <v>2</v>
-      </c>
-      <c r="D67" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E67" s="51"/>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A68" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="B68" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="C68" s="57">
-        <v>2</v>
-      </c>
-      <c r="D68" s="58" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="B69" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="C69" s="63">
-        <f>SUM(C47:C68)</f>
-        <v>45</v>
+      <c r="B37" s="54">
+        <f>C63</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A8:D8"/>
+  <mergeCells count="5">
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC3A3C2-F7BB-466C-8AC7-B984605A6DD0}">
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="6" width="22.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2">
-        <f>LEN(B1)/2</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="22" t="str">
-        <f>MID($B$1,1,2)</f>
-        <v>03</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A6" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="25" t="str">
-        <f>MID($B$1,3,2)</f>
-        <v>14</v>
-      </c>
-      <c r="C6" s="25">
-        <f>(HEX2DEC(B6)/10)+10</f>
-        <v>12</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="22" t="str">
-        <f>MID($B$1,5,4)</f>
-        <v>61c3</v>
-      </c>
-      <c r="C7" s="22">
-        <f>HEX2DEC(B7)/10</f>
-        <v>2502.6999999999998</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="28" t="str">
-        <f>MID($B$1,9,4)</f>
-        <v>2330</v>
-      </c>
-      <c r="C8" s="28">
-        <f>HEX2DEC(B8)/1000</f>
-        <v>9.0079999999999991</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="28" t="str">
-        <f>MID($B$1,13,4)</f>
-        <v>1111</v>
-      </c>
-      <c r="C9" s="28">
-        <f>HEX2DEC(B9)/10</f>
-        <v>436.9</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="28" t="str">
-        <f>MID($B$1,17,4)</f>
-        <v>1221</v>
-      </c>
-      <c r="C10" s="28">
-        <f>HEX2DEC(B10)/10</f>
-        <v>464.1</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A11" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="25" t="str">
-        <f>MID($B$1,21,4)</f>
-        <v>1331</v>
-      </c>
-      <c r="C11" s="25">
-        <f>HEX2DEC(B11)*10</f>
-        <v>49130</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="22" t="str">
-        <f>MID($B$1,25,4)</f>
-        <v>1441</v>
-      </c>
-      <c r="C12" s="22">
-        <f t="shared" ref="C12" si="0">HEX2DEC(B12)/10</f>
-        <v>518.5</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="28" t="str">
-        <f>MID($B$1,29,4)</f>
-        <v>1551</v>
-      </c>
-      <c r="C13" s="28">
-        <f t="shared" ref="C13" si="1">HEX2DEC(B13)/1000</f>
-        <v>5.4569999999999999</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="28" t="str">
-        <f>MID($B$1,33,4)</f>
-        <v>2112</v>
-      </c>
-      <c r="C14" s="28">
-        <f t="shared" ref="C14:C15" si="2">HEX2DEC(B14)/10</f>
-        <v>846.6</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="28" t="str">
-        <f>MID($B$1,37,4)</f>
-        <v>2222</v>
-      </c>
-      <c r="C15" s="28">
-        <f t="shared" si="2"/>
-        <v>873.8</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A16" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="25" t="str">
-        <f>MID($B$1,41,4)</f>
-        <v>2332</v>
-      </c>
-      <c r="C16" s="25">
-        <f t="shared" ref="C16" si="3">HEX2DEC(B16)*10</f>
-        <v>90100</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="22" t="str">
-        <f>MID($B$1,45,4)</f>
-        <v>2442</v>
-      </c>
-      <c r="C17" s="22">
-        <f t="shared" ref="C17" si="4">HEX2DEC(B17)/10</f>
-        <v>928.2</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="28" t="str">
-        <f>MID($B$1,49,4)</f>
-        <v>2552</v>
-      </c>
-      <c r="C18" s="28">
-        <f t="shared" ref="C18" si="5">HEX2DEC(B18)/1000</f>
-        <v>9.5540000000000003</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="28" t="str">
-        <f>MID($B$1,53,4)</f>
-        <v>3113</v>
-      </c>
-      <c r="C19" s="28">
-        <f t="shared" ref="C19:C20" si="6">HEX2DEC(B19)/10</f>
-        <v>1256.3</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" s="28" t="str">
-        <f>MID($B$1,57,4)</f>
-        <v>3223</v>
-      </c>
-      <c r="C20" s="28">
-        <f t="shared" si="6"/>
-        <v>1283.5</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A21" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="25" t="str">
-        <f>MID($B$1,61,4)</f>
-        <v>3333</v>
-      </c>
-      <c r="C21" s="25">
-        <f t="shared" ref="C21" si="7">HEX2DEC(B21)*10</f>
-        <v>131070</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" s="22" t="str">
-        <f>MID($B$1,65,4)</f>
-        <v>3443</v>
-      </c>
-      <c r="C22" s="22">
-        <f t="shared" ref="C22" si="8">HEX2DEC(B22)/10</f>
-        <v>1337.9</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" s="28" t="str">
-        <f>MID($B$1,69,4)</f>
-        <v>3553</v>
-      </c>
-      <c r="C23" s="28">
-        <f t="shared" ref="C23" si="9">HEX2DEC(B23)/1000</f>
-        <v>13.651</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B24" s="28" t="str">
-        <f>MID($B$1,73,4)</f>
-        <v>4114</v>
-      </c>
-      <c r="C24" s="28">
-        <f t="shared" ref="C24:C25" si="10">HEX2DEC(B24)/10</f>
-        <v>1666</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="28" t="str">
-        <f>MID($B$1,77,4)</f>
-        <v>4224</v>
-      </c>
-      <c r="C25" s="28">
-        <f t="shared" si="10"/>
-        <v>1693.2</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A26" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" s="25" t="str">
-        <f>MID($B$1,81,4)</f>
-        <v>4334</v>
-      </c>
-      <c r="C26" s="25">
-        <f t="shared" ref="C26" si="11">HEX2DEC(B26)*10</f>
-        <v>172040</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8ABDE8-E1B6-48E7-9A10-E5E726EB722B}">
-  <dimension ref="A1:I27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2729,660 +2039,704 @@
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="85" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" t="s">
         <v>113</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="70" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D2">
         <f>LEN(D1)/2</f>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A4" s="19"/>
-      <c r="B4" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="F4" s="20" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="21" t="s">
-        <v>117</v>
+      <c r="G4" s="17" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="44">
+      <c r="A5" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="40">
         <v>1</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="40">
         <v>1</v>
       </c>
-      <c r="D5" s="22" t="str">
+      <c r="D5" s="18" t="str">
         <f>MID($D$1,(B5-1)*2+1,C5*2)</f>
-        <v>03</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>118</v>
+        <v>04</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="43">
+      <c r="A6" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="39">
         <f>B5+C5</f>
         <v>2</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="39">
         <v>1</v>
       </c>
-      <c r="D6" s="28" t="str">
+      <c r="D6" s="24" t="str">
         <f>MID($D$1,(B6-1)*2+1,C6*2)</f>
         <v>25</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="24">
         <f>(HEX2DEC(D6)/10)+10</f>
         <v>13.7</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="G6" s="45" t="s">
-        <v>134</v>
+      <c r="F6" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A7" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" s="46">
-        <f t="shared" ref="B7:B27" si="0">B6+C6</f>
+      <c r="A7" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="42">
+        <f t="shared" ref="B7:B28" si="0">B6+C6</f>
         <v>3</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="42">
         <v>4</v>
       </c>
-      <c r="D7" s="25" t="str">
+      <c r="D7" s="21" t="str">
         <f>MID($D$1,(B7-1)*2+1,C7*2)</f>
         <v>61f98330</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="43">
         <f>HEX2DEC(D7)</f>
         <v>1643742000</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="49">
+      <c r="F7" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="45">
         <f>(E7)/86400 + DATE(1970,1,1)</f>
         <v>44593.791666666672</v>
       </c>
-      <c r="I7" s="28" t="s">
-        <v>130</v>
+      <c r="I7" s="24" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="40">
+      <c r="A8" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="36">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C8" s="40">
-        <v>2</v>
-      </c>
-      <c r="D8" s="41" t="str">
-        <f t="shared" ref="D8:D27" si="1">MID($D$1,(B8-1)*2+1,C8*2)</f>
+      <c r="C8" s="36">
+        <v>2</v>
+      </c>
+      <c r="D8" s="37" t="str">
+        <f t="shared" ref="D8:D28" si="1">MID($D$1,(B8-1)*2+1,C8*2)</f>
         <v>0003</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="37">
         <f>HEX2DEC(D8)/10</f>
         <v>0.3</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="42" t="s">
-        <v>74</v>
+      <c r="G8" s="38" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="36">
+      <c r="A9" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="32">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C9" s="36">
-        <v>2</v>
-      </c>
-      <c r="D9" s="28" t="str">
+      <c r="C9" s="32">
+        <v>2</v>
+      </c>
+      <c r="D9" s="24" t="str">
         <f t="shared" si="1"/>
         <v>0005</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="24">
         <f>HEX2DEC(D9)/1000</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="29" t="s">
-        <v>71</v>
+      <c r="G9" s="25" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="36">
+      <c r="A10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="32">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C10" s="36">
-        <v>2</v>
-      </c>
-      <c r="D10" s="28" t="str">
+      <c r="C10" s="32">
+        <v>2</v>
+      </c>
+      <c r="D10" s="24" t="str">
         <f t="shared" si="1"/>
         <v>00fc</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="24">
         <f>HEX2DEC(D10)/10</f>
         <v>25.2</v>
       </c>
-      <c r="F10" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>72</v>
+      <c r="F10" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="36">
+      <c r="A11" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="32">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C11" s="36">
-        <v>2</v>
-      </c>
-      <c r="D11" s="28" t="str">
+      <c r="C11" s="32">
+        <v>2</v>
+      </c>
+      <c r="D11" s="24" t="str">
         <f t="shared" si="1"/>
         <v>004d</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="24">
         <f>HEX2DEC(D11)/10</f>
         <v>7.7</v>
       </c>
-      <c r="F11" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>73</v>
+      <c r="F11" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A12" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="37">
+      <c r="A12" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="33">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C12" s="37">
-        <v>2</v>
-      </c>
-      <c r="D12" s="25" t="str">
+      <c r="C12" s="33">
+        <v>2</v>
+      </c>
+      <c r="D12" s="21" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="21">
         <f>HEX2DEC(D12)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="26" t="s">
-        <v>132</v>
+      <c r="G12" s="22" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="33">
+      <c r="A13" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="29">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C13" s="33">
-        <v>2</v>
-      </c>
-      <c r="D13" s="22" t="str">
+      <c r="C13" s="29">
+        <v>2</v>
+      </c>
+      <c r="D13" s="18" t="str">
         <f t="shared" si="1"/>
         <v>0003</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="18">
         <f t="shared" ref="E13" si="2">HEX2DEC(D13)/10</f>
         <v>0.3</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="27" t="s">
-        <v>74</v>
+      <c r="G13" s="23" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="38">
+      <c r="A14" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="34">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C14" s="38">
-        <v>2</v>
-      </c>
-      <c r="D14" s="28" t="str">
+      <c r="C14" s="34">
+        <v>2</v>
+      </c>
+      <c r="D14" s="24" t="str">
         <f t="shared" si="1"/>
         <v>0005</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="24">
         <f t="shared" ref="E14" si="3">HEX2DEC(D14)/1000</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="29" t="s">
-        <v>71</v>
+      <c r="G14" s="25" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="38">
+      <c r="A15" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="34">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C15" s="38">
-        <v>2</v>
-      </c>
-      <c r="D15" s="28" t="str">
+      <c r="C15" s="34">
+        <v>2</v>
+      </c>
+      <c r="D15" s="24" t="str">
         <f t="shared" si="1"/>
         <v>00df</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="24">
         <f t="shared" ref="E15:E16" si="4">HEX2DEC(D15)/10</f>
         <v>22.3</v>
       </c>
-      <c r="F15" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="G15" s="30" t="s">
-        <v>72</v>
+      <c r="F15" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="38">
+      <c r="A16" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="34">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C16" s="38">
-        <v>2</v>
-      </c>
-      <c r="D16" s="28" t="str">
+      <c r="C16" s="34">
+        <v>2</v>
+      </c>
+      <c r="D16" s="24" t="str">
         <f t="shared" si="1"/>
         <v>004f</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="24">
         <f t="shared" si="4"/>
         <v>7.9</v>
       </c>
-      <c r="F16" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A17" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="34">
+      <c r="F16" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A17" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="30">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C17" s="34">
-        <v>2</v>
-      </c>
-      <c r="D17" s="25" t="str">
+      <c r="C17" s="30">
+        <v>2</v>
+      </c>
+      <c r="D17" s="21" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="21">
         <f>HEX2DEC(D17)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="35">
+    <row r="18" spans="1:8">
+      <c r="A18" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="31">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C18" s="35">
-        <v>2</v>
-      </c>
-      <c r="D18" s="22" t="str">
+      <c r="C18" s="31">
+        <v>2</v>
+      </c>
+      <c r="D18" s="18" t="str">
         <f t="shared" si="1"/>
         <v>0003</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="18">
         <f t="shared" ref="E18" si="5">HEX2DEC(D18)/10</f>
         <v>0.3</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="36">
+      <c r="G18" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="32">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C19" s="36">
-        <v>2</v>
-      </c>
-      <c r="D19" s="28" t="str">
+      <c r="C19" s="32">
+        <v>2</v>
+      </c>
+      <c r="D19" s="24" t="str">
         <f t="shared" si="1"/>
         <v>0005</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="24">
         <f t="shared" ref="E19" si="6">HEX2DEC(D19)/1000</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="36">
+      <c r="G19" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="32">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C20" s="36">
-        <v>2</v>
-      </c>
-      <c r="D20" s="28" t="str">
+      <c r="C20" s="32">
+        <v>2</v>
+      </c>
+      <c r="D20" s="24" t="str">
         <f t="shared" si="1"/>
         <v>00c9</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="24">
         <f t="shared" ref="E20:E21" si="7">HEX2DEC(D20)/10</f>
         <v>20.100000000000001</v>
       </c>
-      <c r="F20" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="36">
+      <c r="F20" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="32">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C21" s="36">
-        <v>2</v>
-      </c>
-      <c r="D21" s="28" t="str">
+      <c r="C21" s="32">
+        <v>2</v>
+      </c>
+      <c r="D21" s="24" t="str">
         <f t="shared" si="1"/>
         <v>0050</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="24">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="F21" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A22" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="37">
+      <c r="F21" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A22" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="33">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C22" s="37">
-        <v>2</v>
-      </c>
-      <c r="D22" s="25" t="str">
+      <c r="C22" s="33">
+        <v>2</v>
+      </c>
+      <c r="D22" s="21" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="21">
         <f>HEX2DEC(D22)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="G22" s="22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="33">
+    <row r="23" spans="1:8">
+      <c r="A23" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="29">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C23" s="33">
-        <v>2</v>
-      </c>
-      <c r="D23" s="22" t="str">
+      <c r="C23" s="29">
+        <v>2</v>
+      </c>
+      <c r="D23" s="18" t="str">
         <f t="shared" si="1"/>
         <v>0003</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="18">
         <f t="shared" ref="E23" si="8">HEX2DEC(D23)/10</f>
         <v>0.3</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" s="38">
+      <c r="G23" s="46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="34">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C24" s="38">
-        <v>2</v>
-      </c>
-      <c r="D24" s="28" t="str">
+      <c r="C24" s="34">
+        <v>2</v>
+      </c>
+      <c r="D24" s="24" t="str">
         <f t="shared" si="1"/>
         <v>0005</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="24">
         <f t="shared" ref="E24" si="9">HEX2DEC(D24)/1000</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" s="38">
+      <c r="G24" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="34">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C25" s="38">
-        <v>2</v>
-      </c>
-      <c r="D25" s="28" t="str">
+      <c r="C25" s="34">
+        <v>2</v>
+      </c>
+      <c r="D25" s="24" t="str">
         <f t="shared" si="1"/>
         <v>00b5</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="24">
         <f t="shared" ref="E25:E26" si="10">HEX2DEC(D25)/10</f>
         <v>18.100000000000001</v>
       </c>
-      <c r="F25" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" s="38">
+      <c r="F25" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="34">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C26" s="38">
-        <v>2</v>
-      </c>
-      <c r="D26" s="28" t="str">
+      <c r="C26" s="34">
+        <v>2</v>
+      </c>
+      <c r="D26" s="24" t="str">
         <f t="shared" si="1"/>
         <v>0051</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="24">
         <f t="shared" si="10"/>
         <v>8.1</v>
       </c>
-      <c r="F26" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="G26" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A27" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27" s="34">
+      <c r="F26" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A27" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="71">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C27" s="34">
-        <v>2</v>
-      </c>
-      <c r="D27" s="25" t="str">
+      <c r="C27" s="71">
+        <v>2</v>
+      </c>
+      <c r="D27" s="68" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="68">
         <f>HEX2DEC(D27)</f>
         <v>0</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="G27" s="69" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="73">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C28" s="73">
+        <v>2</v>
+      </c>
+      <c r="D28" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>00FF</v>
+      </c>
+      <c r="E28" s="50" t="str">
+        <f>IF(HEX2DEC(D28)-E29&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="51" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A29" s="13"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53">
+        <f>MOD(HEX2DEC(D28),HEX2DEC("7FFF"))</f>
+        <v>255</v>
+      </c>
+      <c r="F29" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="H29" s="54" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3390,16 +2744,15 @@
     <mergeCell ref="D1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3689,7 +3042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>

--- a/docs/Envio_datos/formato_trama.xlsx
+++ b/docs/Envio_datos/formato_trama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ProMatix\Dropbox\TAREAS\secretaria\est_monit_rio_jachal\Software Datalogger\docs\Envio_datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F438F7-2D9D-4963-9B89-B6E88A342D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47884B5-D8C7-4198-8E4E-E4B80AA7B5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{491356B7-5324-4ED6-B0E1-267A4EDEE2E7}"/>
   </bookViews>
@@ -252,9 +252,6 @@
     <t>Payload</t>
   </si>
   <si>
-    <t>042561f983300003000500fc004d00000003000500df004f00000003000500c9005000000003000500b50051000000FF</t>
-  </si>
-  <si>
     <t>&lt;- Insertar payload a decodificar</t>
   </si>
   <si>
@@ -370,6 +367,9 @@
   </si>
   <si>
     <t>Dec</t>
+  </si>
+  <si>
+    <t>041762393bb0004300000000005100080043000000000051000500430000000000510005004300000000005100050104</t>
   </si>
 </sst>
 </file>
@@ -855,44 +855,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -909,46 +876,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="6" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1001,9 +938,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1014,6 +948,72 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Énfasis1" xfId="2" builtinId="30"/>
@@ -1342,120 +1342,120 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.5703125" style="27" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="27"/>
+    <col min="1" max="4" width="20.5703125" style="15" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
     </row>
     <row r="2" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
     </row>
     <row r="3" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
     </row>
     <row r="6" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="63"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="17">
         <v>123</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="17">
         <f>B10/10</f>
         <v>12.3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="17">
         <v>37</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="17">
         <f>(B11/10)+10</f>
         <v>13.7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="17">
         <v>456</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17">
         <f>B12</f>
         <v>456</v>
       </c>
@@ -1499,18 +1499,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1540,19 +1540,19 @@
       <c r="A3" s="7">
         <v>0</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="9">
         <v>1</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="14" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1560,17 +1560,17 @@
       <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="9">
         <v>1</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="17" t="s">
         <v>56</v>
       </c>
       <c r="G4" s="7" t="s">
@@ -1584,25 +1584,25 @@
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="73">
         <v>4</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="70" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1610,758 +1610,758 @@
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="18">
-        <v>2</v>
-      </c>
-      <c r="F9" s="11" t="s">
+      <c r="E9" s="68">
+        <v>2</v>
+      </c>
+      <c r="F9" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="11"/>
+      <c r="H9" s="66"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="18">
-        <v>2</v>
-      </c>
-      <c r="F11" s="11" t="s">
+      <c r="E11" s="68">
+        <v>2</v>
+      </c>
+      <c r="F11" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="11"/>
+      <c r="H11" s="66"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="18">
-        <v>2</v>
-      </c>
-      <c r="F13" s="11" t="s">
+      <c r="E13" s="68">
+        <v>2</v>
+      </c>
+      <c r="F13" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="11"/>
+      <c r="H13" s="66"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>12</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="18">
-        <v>2</v>
-      </c>
-      <c r="F15" s="11" t="s">
+      <c r="E15" s="68">
+        <v>2</v>
+      </c>
+      <c r="F15" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="11"/>
+      <c r="H15" s="66"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>14</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="18">
-        <v>2</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11" t="s">
+      <c r="E17" s="68">
+        <v>2</v>
+      </c>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="11"/>
+      <c r="H17" s="66"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>15</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>16</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="18">
-        <v>2</v>
-      </c>
-      <c r="F19" s="11" t="s">
+      <c r="E19" s="68">
+        <v>2</v>
+      </c>
+      <c r="F19" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="11"/>
+      <c r="H19" s="66"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>17</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>18</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="18">
-        <v>2</v>
-      </c>
-      <c r="F21" s="11" t="s">
+      <c r="E21" s="68">
+        <v>2</v>
+      </c>
+      <c r="F21" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="11"/>
+      <c r="H21" s="66"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>19</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>20</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="18">
-        <v>2</v>
-      </c>
-      <c r="F23" s="11" t="s">
+      <c r="E23" s="68">
+        <v>2</v>
+      </c>
+      <c r="F23" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="11"/>
+      <c r="H23" s="66"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>21</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>22</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="18">
-        <v>2</v>
-      </c>
-      <c r="F25" s="11" t="s">
+      <c r="E25" s="68">
+        <v>2</v>
+      </c>
+      <c r="F25" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="11"/>
+      <c r="H25" s="66"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>23</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>24</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="18">
-        <v>2</v>
-      </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11" t="s">
+      <c r="E27" s="68">
+        <v>2</v>
+      </c>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="11"/>
+      <c r="H27" s="66"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>25</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>26</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="18">
-        <v>2</v>
-      </c>
-      <c r="F29" s="11" t="s">
+      <c r="E29" s="68">
+        <v>2</v>
+      </c>
+      <c r="F29" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="11"/>
+      <c r="H29" s="66"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>27</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>28</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="18">
-        <v>2</v>
-      </c>
-      <c r="F31" s="11" t="s">
+      <c r="E31" s="68">
+        <v>2</v>
+      </c>
+      <c r="F31" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="11"/>
+      <c r="H31" s="66"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>29</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>30</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="18">
-        <v>2</v>
-      </c>
-      <c r="F33" s="11" t="s">
+      <c r="E33" s="68">
+        <v>2</v>
+      </c>
+      <c r="F33" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="11"/>
+      <c r="H33" s="66"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>31</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>32</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="18">
-        <v>2</v>
-      </c>
-      <c r="F35" s="11" t="s">
+      <c r="E35" s="68">
+        <v>2</v>
+      </c>
+      <c r="F35" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="11"/>
+      <c r="H35" s="66"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>33</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>34</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="18">
-        <v>2</v>
-      </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11" t="s">
+      <c r="E37" s="68">
+        <v>2</v>
+      </c>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="H37" s="11"/>
+      <c r="H37" s="66"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>35</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>36</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="18">
-        <v>2</v>
-      </c>
-      <c r="F39" s="11" t="s">
+      <c r="E39" s="68">
+        <v>2</v>
+      </c>
+      <c r="F39" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="H39" s="11"/>
+      <c r="H39" s="66"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>37</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>38</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="18">
-        <v>2</v>
-      </c>
-      <c r="F41" s="11" t="s">
+      <c r="E41" s="68">
+        <v>2</v>
+      </c>
+      <c r="F41" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G41" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="H41" s="11"/>
+      <c r="H41" s="66"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>39</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>40</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="18">
-        <v>2</v>
-      </c>
-      <c r="F43" s="11" t="s">
+      <c r="E43" s="68">
+        <v>2</v>
+      </c>
+      <c r="F43" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="G43" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="H43" s="11"/>
+      <c r="H43" s="66"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>41</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>42</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="18">
-        <v>2</v>
-      </c>
-      <c r="F45" s="11" t="s">
+      <c r="E45" s="68">
+        <v>2</v>
+      </c>
+      <c r="F45" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G45" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="11"/>
+      <c r="H45" s="66"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>43</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="66"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>44</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="18">
-        <v>2</v>
-      </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11" t="s">
+      <c r="E47" s="68">
+        <v>2</v>
+      </c>
+      <c r="F47" s="66"/>
+      <c r="G47" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="H47" s="11"/>
+      <c r="H47" s="66"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>45</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="66"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>46</v>
       </c>
-      <c r="B49" s="15"/>
+      <c r="B49" s="8"/>
       <c r="C49" s="7"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="17"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="9"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
@@ -2370,10 +2370,10 @@
       <c r="A50" s="7">
         <v>47</v>
       </c>
-      <c r="B50" s="15"/>
+      <c r="B50" s="8"/>
       <c r="C50" s="7"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="17"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="9"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
@@ -2382,10 +2382,10 @@
       <c r="A51" s="7">
         <v>48</v>
       </c>
-      <c r="B51" s="15"/>
+      <c r="B51" s="8"/>
       <c r="C51" s="7"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="17"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="9"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
@@ -2394,16 +2394,150 @@
       <c r="A52" s="7">
         <v>49</v>
       </c>
-      <c r="B52" s="15"/>
+      <c r="B52" s="8"/>
       <c r="C52" s="7"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="17"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="9"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="148">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
     <mergeCell ref="H45:H46"/>
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="C47:C48"/>
@@ -2418,140 +2552,6 @@
     <mergeCell ref="E45:E46"/>
     <mergeCell ref="F45:F46"/>
     <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="G5:G8"/>
-    <mergeCell ref="H5:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2582,16 +2582,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -2623,19 +2623,19 @@
       <c r="A3" s="7">
         <v>0</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="9">
         <v>1</v>
       </c>
-      <c r="F3" s="17"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="14" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2643,17 +2643,17 @@
       <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="9">
         <v>1</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="20" t="s">
         <v>56</v>
       </c>
       <c r="G4" s="7" t="s">
@@ -2667,25 +2667,25 @@
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="73">
         <v>4</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="70" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2693,788 +2693,788 @@
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="18">
-        <v>2</v>
-      </c>
-      <c r="F9" s="18" t="s">
+      <c r="E9" s="68">
+        <v>2</v>
+      </c>
+      <c r="F9" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="11"/>
+      <c r="H9" s="66"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="18">
-        <v>2</v>
-      </c>
-      <c r="F11" s="18" t="s">
+      <c r="E11" s="68">
+        <v>2</v>
+      </c>
+      <c r="F11" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="11"/>
+      <c r="H11" s="66"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="18">
-        <v>2</v>
-      </c>
-      <c r="F13" s="18" t="s">
+      <c r="E13" s="68">
+        <v>2</v>
+      </c>
+      <c r="F13" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="11"/>
+      <c r="H13" s="66"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>12</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="18">
-        <v>2</v>
-      </c>
-      <c r="F15" s="18" t="s">
+      <c r="E15" s="68">
+        <v>2</v>
+      </c>
+      <c r="F15" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="11"/>
+      <c r="H15" s="66"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>14</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="18">
-        <v>2</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="11" t="s">
+      <c r="E17" s="68">
+        <v>2</v>
+      </c>
+      <c r="F17" s="68"/>
+      <c r="G17" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="11"/>
+      <c r="H17" s="66"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>15</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>16</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="18">
-        <v>2</v>
-      </c>
-      <c r="F19" s="18" t="s">
+      <c r="E19" s="68">
+        <v>2</v>
+      </c>
+      <c r="F19" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="11"/>
+      <c r="H19" s="66"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>17</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>18</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="18">
-        <v>2</v>
-      </c>
-      <c r="F21" s="18" t="s">
+      <c r="E21" s="68">
+        <v>2</v>
+      </c>
+      <c r="F21" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="11"/>
+      <c r="H21" s="66"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>19</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>20</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="18">
-        <v>2</v>
-      </c>
-      <c r="F23" s="18" t="s">
+      <c r="E23" s="68">
+        <v>2</v>
+      </c>
+      <c r="F23" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="11"/>
+      <c r="H23" s="66"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>21</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>22</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="18">
-        <v>2</v>
-      </c>
-      <c r="F25" s="18" t="s">
+      <c r="E25" s="68">
+        <v>2</v>
+      </c>
+      <c r="F25" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="11"/>
+      <c r="H25" s="66"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>23</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>24</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="18">
-        <v>2</v>
-      </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="11" t="s">
+      <c r="E27" s="68">
+        <v>2</v>
+      </c>
+      <c r="F27" s="68"/>
+      <c r="G27" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="11"/>
+      <c r="H27" s="66"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>25</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>26</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="18">
-        <v>2</v>
-      </c>
-      <c r="F29" s="18" t="s">
+      <c r="E29" s="68">
+        <v>2</v>
+      </c>
+      <c r="F29" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="11"/>
+      <c r="H29" s="66"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>27</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>28</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="18">
-        <v>2</v>
-      </c>
-      <c r="F31" s="18" t="s">
+      <c r="E31" s="68">
+        <v>2</v>
+      </c>
+      <c r="F31" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="11"/>
+      <c r="H31" s="66"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>29</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>30</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="18">
-        <v>2</v>
-      </c>
-      <c r="F33" s="18" t="s">
+      <c r="E33" s="68">
+        <v>2</v>
+      </c>
+      <c r="F33" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="11"/>
+      <c r="H33" s="66"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>31</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>32</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="18">
-        <v>2</v>
-      </c>
-      <c r="F35" s="18" t="s">
+      <c r="E35" s="68">
+        <v>2</v>
+      </c>
+      <c r="F35" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="11"/>
+      <c r="H35" s="66"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>33</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>34</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="18">
-        <v>2</v>
-      </c>
-      <c r="F37" s="18"/>
-      <c r="G37" s="11" t="s">
+      <c r="E37" s="68">
+        <v>2</v>
+      </c>
+      <c r="F37" s="68"/>
+      <c r="G37" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="H37" s="11"/>
+      <c r="H37" s="66"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>35</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>36</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="18">
-        <v>2</v>
-      </c>
-      <c r="F39" s="18" t="s">
+      <c r="E39" s="68">
+        <v>2</v>
+      </c>
+      <c r="F39" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="H39" s="11"/>
+      <c r="H39" s="66"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>37</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>38</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="18">
-        <v>2</v>
-      </c>
-      <c r="F41" s="18" t="s">
+      <c r="E41" s="68">
+        <v>2</v>
+      </c>
+      <c r="F41" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G41" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="H41" s="11"/>
+      <c r="H41" s="66"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>39</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>40</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="18">
-        <v>2</v>
-      </c>
-      <c r="F43" s="18" t="s">
+      <c r="E43" s="68">
+        <v>2</v>
+      </c>
+      <c r="F43" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="G43" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="H43" s="11"/>
+      <c r="H43" s="66"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>41</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>42</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="18">
-        <v>2</v>
-      </c>
-      <c r="F45" s="18" t="s">
+      <c r="E45" s="68">
+        <v>2</v>
+      </c>
+      <c r="F45" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G45" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="11"/>
+      <c r="H45" s="66"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>43</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="66"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>44</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="18">
-        <v>2</v>
-      </c>
-      <c r="F47" s="18"/>
-      <c r="G47" s="11" t="s">
+      <c r="E47" s="68">
+        <v>2</v>
+      </c>
+      <c r="F47" s="68"/>
+      <c r="G47" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="H47" s="11"/>
+      <c r="H47" s="66"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>45</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="66"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>46</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="18">
-        <v>2</v>
-      </c>
-      <c r="F49" s="18" t="s">
+      <c r="C49" s="68"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="68">
+        <v>2</v>
+      </c>
+      <c r="F49" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="66"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>47</v>
       </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="66"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>48</v>
       </c>
-      <c r="B51" s="15"/>
+      <c r="B51" s="8"/>
       <c r="C51" s="7"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="17"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="9"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
@@ -3483,16 +3483,150 @@
       <c r="A52" s="7">
         <v>49</v>
       </c>
-      <c r="B52" s="15"/>
+      <c r="B52" s="8"/>
       <c r="C52" s="7"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="17"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="9"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="155">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
     <mergeCell ref="H49:H50"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="C49:C50"/>
@@ -3514,140 +3648,6 @@
     <mergeCell ref="E45:E46"/>
     <mergeCell ref="F45:F46"/>
     <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="G5:G8"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="C5:C8"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3658,8 +3658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E80D12-58E6-4371-A6C7-1CD8C8436AF0}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3676,26 +3676,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="43" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" t="s">
         <v>63</v>
-      </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2">
         <f>LEN(D1)/2</f>
@@ -3704,758 +3704,758 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="49"/>
+      <c r="B4" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="D4" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="E4" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="73" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="74" t="s">
+      <c r="H4" s="52" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="24">
         <v>1</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="24">
         <v>1</v>
       </c>
-      <c r="D5" s="46" t="str">
+      <c r="D5" s="25" t="str">
         <f>MID($D$1,(B5-1)*2+1,C5*2)</f>
         <v>04</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="25">
         <f>HEX2DEC(D5)</f>
         <v>4</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="48" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="B6" s="29">
+        <f>B5+C5</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="29">
+        <v>1</v>
+      </c>
+      <c r="D6" s="30" t="str">
+        <f>MID($D$1,(B6-1)*2+1,C6*2)</f>
+        <v>17</v>
+      </c>
+      <c r="E6" s="30">
+        <f t="shared" ref="E6:E27" si="0">HEX2DEC(D6)</f>
+        <v>23</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="30">
+        <f>(E6/10)+10</f>
+        <v>12.3</v>
+      </c>
+      <c r="H6" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="50">
-        <f>B5+C5</f>
-        <v>2</v>
-      </c>
-      <c r="C6" s="50">
-        <v>1</v>
-      </c>
-      <c r="D6" s="51" t="str">
-        <f>MID($D$1,(B6-1)*2+1,C6*2)</f>
-        <v>25</v>
-      </c>
-      <c r="E6" s="51">
-        <f t="shared" ref="E6:E27" si="0">HEX2DEC(D6)</f>
-        <v>37</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="51">
-        <f>(E6/10)+10</f>
-        <v>13.7</v>
-      </c>
-      <c r="H6" s="52" t="s">
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="54">
+      <c r="B7" s="33">
         <f t="shared" ref="B7:B28" si="1">B6+C6</f>
         <v>3</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="33">
         <v>4</v>
       </c>
-      <c r="D7" s="55" t="str">
+      <c r="D7" s="34" t="str">
         <f>MID($D$1,(B7-1)*2+1,C7*2)</f>
-        <v>61f98330</v>
-      </c>
-      <c r="E7" s="55">
+        <v>62393bb0</v>
+      </c>
+      <c r="E7" s="34">
         <f t="shared" si="0"/>
-        <v>1643742000</v>
-      </c>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69">
+        <v>1647918000</v>
+      </c>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48">
         <f>E7</f>
-        <v>1643742000</v>
-      </c>
-      <c r="H7" s="62" t="s">
+        <v>1647918000</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="35">
+        <f>(G7)/86400 + DATE(1970,1,1)</f>
+        <v>44642.125</v>
+      </c>
+      <c r="J7" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="56">
-        <f>(G7)/86400 + DATE(1970,1,1)</f>
-        <v>44593.791666666672</v>
-      </c>
-      <c r="J7" s="51" t="s">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="67">
+      <c r="B8" s="46">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C8" s="67">
-        <v>2</v>
-      </c>
-      <c r="D8" s="46" t="str">
+      <c r="C8" s="46">
+        <v>2</v>
+      </c>
+      <c r="D8" s="25" t="str">
         <f t="shared" ref="D8:D28" si="2">MID($D$1,(B8-1)*2+1,C8*2)</f>
-        <v>0003</v>
-      </c>
-      <c r="E8" s="46">
+        <v>0043</v>
+      </c>
+      <c r="E8" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F8" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="25">
         <f>(E8)/10</f>
-        <v>0.3</v>
-      </c>
-      <c r="H8" s="63" t="s">
+        <v>6.7</v>
+      </c>
+      <c r="H8" s="42" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="75">
+      <c r="A9" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="53">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C9" s="75">
-        <v>2</v>
-      </c>
-      <c r="D9" s="51" t="str">
+      <c r="C9" s="53">
+        <v>2</v>
+      </c>
+      <c r="D9" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>0000</v>
+      </c>
+      <c r="E9" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="30">
+        <f>(E9)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="53">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C10" s="53">
+        <v>2</v>
+      </c>
+      <c r="D10" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>0000</v>
+      </c>
+      <c r="E10" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="30">
+        <f>(E10)/10</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="53">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C11" s="53">
+        <v>2</v>
+      </c>
+      <c r="D11" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>0051</v>
+      </c>
+      <c r="E11" s="30">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="30">
+        <f>(E11)/10</f>
+        <v>8.1</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="47">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C12" s="47">
+        <v>2</v>
+      </c>
+      <c r="D12" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>0008</v>
+      </c>
+      <c r="E12" s="34">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34">
+        <f>E12</f>
+        <v>8</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="46">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="C13" s="46">
+        <v>2</v>
+      </c>
+      <c r="D13" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>0043</v>
+      </c>
+      <c r="E13" s="25">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="25">
+        <f>(E13)/10</f>
+        <v>6.7</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="53">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C14" s="53">
+        <v>2</v>
+      </c>
+      <c r="D14" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>0000</v>
+      </c>
+      <c r="E14" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="30">
+        <f>(E14)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="53">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="C15" s="53">
+        <v>2</v>
+      </c>
+      <c r="D15" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>0000</v>
+      </c>
+      <c r="E15" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="30">
+        <f>(E15)/10</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="53">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C16" s="53">
+        <v>2</v>
+      </c>
+      <c r="D16" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>0051</v>
+      </c>
+      <c r="E16" s="30">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="30">
+        <f>(E16)/10</f>
+        <v>8.1</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="55">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C17" s="55">
+        <v>2</v>
+      </c>
+      <c r="D17" s="44" t="str">
         <f t="shared" si="2"/>
         <v>0005</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E17" s="44">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F9" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="51">
-        <f>(E9)/1000</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H9" s="52" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="75">
+      <c r="F17" s="44"/>
+      <c r="G17" s="44">
+        <f>(E17)</f>
+        <v>5</v>
+      </c>
+      <c r="H17" s="45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="46">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="C10" s="75">
-        <v>2</v>
-      </c>
-      <c r="D10" s="51" t="str">
+        <v>27</v>
+      </c>
+      <c r="C18" s="46">
+        <v>2</v>
+      </c>
+      <c r="D18" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>00fc</v>
-      </c>
-      <c r="E10" s="51">
+        <v>0043</v>
+      </c>
+      <c r="E18" s="25">
         <f t="shared" si="0"/>
-        <v>252</v>
-      </c>
-      <c r="F10" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="51">
-        <f>(E10)/10</f>
-        <v>25.2</v>
-      </c>
-      <c r="H10" s="52" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="75">
+      <c r="G18" s="25">
+        <f>(E18)/10</f>
+        <v>6.7</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="53">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="C11" s="75">
-        <v>2</v>
-      </c>
-      <c r="D11" s="51" t="str">
-        <f t="shared" si="2"/>
-        <v>004d</v>
-      </c>
-      <c r="E11" s="51">
-        <f t="shared" si="0"/>
-        <v>77</v>
-      </c>
-      <c r="F11" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="51">
-        <f>(E11)/10</f>
-        <v>7.7</v>
-      </c>
-      <c r="H11" s="52" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="68">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="C12" s="68">
-        <v>2</v>
-      </c>
-      <c r="D12" s="55" t="str">
+        <v>29</v>
+      </c>
+      <c r="C19" s="53">
+        <v>2</v>
+      </c>
+      <c r="D19" s="30" t="str">
         <f t="shared" si="2"/>
         <v>0000</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E19" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55">
-        <f>E12</f>
+      <c r="F19" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="30">
+        <f>(E19)/1000</f>
         <v>0</v>
       </c>
-      <c r="H12" s="62" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="67">
+      <c r="H19" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="53">
         <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="C20" s="53">
+        <v>2</v>
+      </c>
+      <c r="D20" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>0000</v>
+      </c>
+      <c r="E20" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="30">
+        <f>(E20)/10</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="53">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="C21" s="53">
+        <v>2</v>
+      </c>
+      <c r="D21" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>0051</v>
+      </c>
+      <c r="E21" s="30">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="30">
+        <f>(E21)/10</f>
+        <v>8.1</v>
+      </c>
+      <c r="H21" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="67">
-        <v>2</v>
-      </c>
-      <c r="D13" s="46" t="str">
-        <f t="shared" si="2"/>
-        <v>0003</v>
-      </c>
-      <c r="E13" s="46">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F13" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="46">
-        <f>(E13)/10</f>
-        <v>0.3</v>
-      </c>
-      <c r="H13" s="63" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="75">
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="47">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="C14" s="75">
-        <v>2</v>
-      </c>
-      <c r="D14" s="51" t="str">
+        <v>35</v>
+      </c>
+      <c r="C22" s="47">
+        <v>2</v>
+      </c>
+      <c r="D22" s="34" t="str">
         <f t="shared" si="2"/>
         <v>0005</v>
       </c>
-      <c r="E14" s="51">
+      <c r="E22" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F14" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="51">
-        <f>(E14)/1000</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H14" s="52" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="75">
+      <c r="F22" s="34"/>
+      <c r="G22" s="34">
+        <f>(E22)</f>
+        <v>5</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="56">
         <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="C23" s="56">
+        <v>2</v>
+      </c>
+      <c r="D23" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>0043</v>
+      </c>
+      <c r="E23" s="37">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="37">
+        <f>(E23)/10</f>
+        <v>6.7</v>
+      </c>
+      <c r="H23" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="75">
-        <v>2</v>
-      </c>
-      <c r="D15" s="51" t="str">
-        <f t="shared" si="2"/>
-        <v>00df</v>
-      </c>
-      <c r="E15" s="51">
-        <f t="shared" si="0"/>
-        <v>223</v>
-      </c>
-      <c r="F15" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="51">
-        <f>(E15)/10</f>
-        <v>22.3</v>
-      </c>
-      <c r="H15" s="52" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="75">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="53">
         <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="C16" s="75">
-        <v>2</v>
-      </c>
-      <c r="D16" s="51" t="str">
-        <f t="shared" si="2"/>
-        <v>004f</v>
-      </c>
-      <c r="E16" s="51">
-        <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="F16" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="51">
-        <f>(E16)/10</f>
-        <v>7.9</v>
-      </c>
-      <c r="H16" s="52" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="76" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="77">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="C17" s="77">
-        <v>2</v>
-      </c>
-      <c r="D17" s="65" t="str">
+        <v>39</v>
+      </c>
+      <c r="C24" s="53">
+        <v>2</v>
+      </c>
+      <c r="D24" s="30" t="str">
         <f t="shared" si="2"/>
         <v>0000</v>
       </c>
-      <c r="E17" s="65">
+      <c r="E24" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65">
-        <f>(E17)</f>
+      <c r="F24" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="30">
+        <f>(E24)/1000</f>
         <v>0</v>
       </c>
-      <c r="H17" s="66" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="67">
+      <c r="H24" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="53">
         <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="C18" s="67">
-        <v>2</v>
-      </c>
-      <c r="D18" s="46" t="str">
+        <v>41</v>
+      </c>
+      <c r="C25" s="53">
+        <v>2</v>
+      </c>
+      <c r="D25" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>0003</v>
-      </c>
-      <c r="E18" s="46">
+        <v>0000</v>
+      </c>
+      <c r="E25" s="30">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F18" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="46">
-        <f>(E18)/10</f>
-        <v>0.3</v>
-      </c>
-      <c r="H18" s="63" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="75">
+      <c r="G25" s="30">
+        <f>(E25)/10</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="53">
         <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="C19" s="75">
-        <v>2</v>
-      </c>
-      <c r="D19" s="51" t="str">
+        <v>43</v>
+      </c>
+      <c r="C26" s="53">
+        <v>2</v>
+      </c>
+      <c r="D26" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>0051</v>
+      </c>
+      <c r="E26" s="30">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="30">
+        <f>(E26)/10</f>
+        <v>8.1</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="55">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="C27" s="55">
+        <v>2</v>
+      </c>
+      <c r="D27" s="44" t="str">
         <f t="shared" si="2"/>
         <v>0005</v>
       </c>
-      <c r="E19" s="51">
+      <c r="E27" s="44">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F19" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="51">
-        <f>(E19)/1000</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H19" s="52" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" s="75">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="C20" s="75">
-        <v>2</v>
-      </c>
-      <c r="D20" s="51" t="str">
-        <f t="shared" si="2"/>
-        <v>00c9</v>
-      </c>
-      <c r="E20" s="51">
-        <f t="shared" si="0"/>
-        <v>201</v>
-      </c>
-      <c r="F20" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="51">
-        <f>(E20)/10</f>
-        <v>20.100000000000001</v>
-      </c>
-      <c r="H20" s="52" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="75">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="C21" s="75">
-        <v>2</v>
-      </c>
-      <c r="D21" s="51" t="str">
-        <f t="shared" si="2"/>
-        <v>0050</v>
-      </c>
-      <c r="E21" s="51">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="F21" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="51">
-        <f>(E21)/10</f>
-        <v>8</v>
-      </c>
-      <c r="H21" s="52" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="68">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="C22" s="68">
-        <v>2</v>
-      </c>
-      <c r="D22" s="55" t="str">
-        <f t="shared" si="2"/>
-        <v>0000</v>
-      </c>
-      <c r="E22" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55">
-        <f>(E22)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="62" t="s">
+      <c r="F27" s="44"/>
+      <c r="G27" s="44">
+        <f>(E27)</f>
+        <v>5</v>
+      </c>
+      <c r="H27" s="45" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" s="78">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="C23" s="78">
-        <v>2</v>
-      </c>
-      <c r="D23" s="58" t="str">
-        <f t="shared" si="2"/>
-        <v>0003</v>
-      </c>
-      <c r="E23" s="58">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F23" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="58">
-        <f>(E23)/10</f>
-        <v>0.3</v>
-      </c>
-      <c r="H23" s="59" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="75">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="C24" s="75">
-        <v>2</v>
-      </c>
-      <c r="D24" s="51" t="str">
-        <f t="shared" si="2"/>
-        <v>0005</v>
-      </c>
-      <c r="E24" s="51">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F24" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="51">
-        <f>(E24)/1000</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H24" s="52" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" s="75">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="C25" s="75">
-        <v>2</v>
-      </c>
-      <c r="D25" s="51" t="str">
-        <f t="shared" si="2"/>
-        <v>00b5</v>
-      </c>
-      <c r="E25" s="51">
-        <f t="shared" si="0"/>
-        <v>181</v>
-      </c>
-      <c r="F25" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="51">
-        <f>(E25)/10</f>
-        <v>18.100000000000001</v>
-      </c>
-      <c r="H25" s="52" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="75">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="C26" s="75">
-        <v>2</v>
-      </c>
-      <c r="D26" s="51" t="str">
-        <f t="shared" si="2"/>
-        <v>0051</v>
-      </c>
-      <c r="E26" s="51">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="F26" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="51">
-        <f>(E26)/10</f>
-        <v>8.1</v>
-      </c>
-      <c r="H26" s="52" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="76" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="77">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="C27" s="77">
-        <v>2</v>
-      </c>
-      <c r="D27" s="65" t="str">
-        <f t="shared" si="2"/>
-        <v>0000</v>
-      </c>
-      <c r="E27" s="65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65">
-        <f>(E27)</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="66" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="67">
+      <c r="B28" s="46">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="C28" s="67">
-        <v>2</v>
-      </c>
-      <c r="D28" s="46" t="str">
+      <c r="C28" s="46">
+        <v>2</v>
+      </c>
+      <c r="D28" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>00FF</v>
-      </c>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46" t="str">
+        <v>0104</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25" t="str">
         <f>IF(HEX2DEC(D28)-G29&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="H28" s="63"/>
-      <c r="I28" s="79" t="s">
+      <c r="H28" s="42"/>
+      <c r="I28" s="57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="40"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="61"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55" t="s">
+      <c r="G29" s="34">
+        <f>MOD(HEX2DEC(D28),HEX2DEC("7FFF"))</f>
+        <v>260</v>
+      </c>
+      <c r="H29" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="I29" s="58" t="s">
         <v>99</v>
-      </c>
-      <c r="G29" s="55">
-        <f>MOD(HEX2DEC(D28),HEX2DEC("7FFF"))</f>
-        <v>255</v>
-      </c>
-      <c r="H29" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="I29" s="80" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4480,24 +4480,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="78"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="69"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -4540,46 +4540,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -4593,124 +4593,124 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+      <c r="A9" s="12">
         <v>1</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="68" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
-        <v>2</v>
-      </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="12">
+        <v>2</v>
+      </c>
+      <c r="B10" s="80"/>
+      <c r="C10" s="68"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+      <c r="A11" s="12">
         <v>3</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="18"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="68"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
+      <c r="A12" s="12">
         <v>4</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="68"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
+      <c r="A13" s="12">
         <v>5</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="68"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
+      <c r="A14" s="12">
         <v>6</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="68"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
+      <c r="A15" s="12">
         <v>7</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="68"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
+      <c r="A16" s="12">
         <v>8</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="68"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
+      <c r="A17" s="12">
         <v>9</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="68"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
+      <c r="A18" s="12">
         <v>10</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="18"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="68"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
+      <c r="A19" s="12">
         <v>11</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="18"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="68"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="23">
+      <c r="A20" s="12">
         <v>12</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="18"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="68"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
+      <c r="A21" s="12">
         <v>13</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="18"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="68"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="23">
+      <c r="A22" s="12">
         <v>14</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="18"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="68"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="18"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/docs/Envio_datos/formato_trama.xlsx
+++ b/docs/Envio_datos/formato_trama.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ProMatix\Dropbox\TAREAS\secretaria\est_monit_rio_jachal\Software Datalogger\docs\Envio_datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47884B5-D8C7-4198-8E4E-E4B80AA7B5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B74355C-8422-4200-9C6B-326E943757FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{491356B7-5324-4ED6-B0E1-267A4EDEE2E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{491356B7-5324-4ED6-B0E1-267A4EDEE2E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
     <sheet name="ReportID 03" sheetId="3" r:id="rId2"/>
     <sheet name="ReportID 04" sheetId="1" r:id="rId3"/>
-    <sheet name="Parser ReportID 04" sheetId="6" r:id="rId4"/>
-    <sheet name="Alerta apertura" sheetId="5" r:id="rId5"/>
-    <sheet name="Estado OBS" sheetId="2" r:id="rId6"/>
+    <sheet name="Parser ID04" sheetId="6" r:id="rId4"/>
+    <sheet name="ReportID 05" sheetId="7" r:id="rId5"/>
+    <sheet name="Parser ID05" sheetId="8" r:id="rId6"/>
+    <sheet name="Alerta apertura" sheetId="5" r:id="rId7"/>
+    <sheet name="Estado OBS" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="110">
   <si>
     <t>byte</t>
   </si>
@@ -371,12 +373,33 @@
   <si>
     <t>041762393bb0004300000000005100080043000000000051000500430000000000510005004300000000005100050104</t>
   </si>
+  <si>
+    <t>Temperatura minima panel</t>
+  </si>
+  <si>
+    <t>= 05 | Indica que algoritmo decodificador debe usarse</t>
+  </si>
+  <si>
+    <t>Temperatura minima desde ultimo envio</t>
+  </si>
+  <si>
+    <t>(x/10)-100</t>
+  </si>
+  <si>
+    <t>bit 0</t>
+  </si>
+  <si>
+    <t>bits 1 - 15</t>
+  </si>
+  <si>
+    <t>051762393bb000430000000000510008004300000000005100050043000000000051000500430000000000510005010403D6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,6 +459,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -838,7 +869,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="6" applyFont="1" applyBorder="1"/>
@@ -885,7 +916,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -948,6 +978,41 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1000,10 +1065,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1347,61 +1412,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
     </row>
     <row r="2" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
     </row>
     <row r="3" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
     </row>
     <row r="6" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="63"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="77"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
@@ -1499,16 +1564,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1584,25 +1649,25 @@
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="73">
+      <c r="E5" s="87">
         <v>4</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="70" t="s">
+      <c r="G5" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="84" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1610,749 +1675,749 @@
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="68">
-        <v>2</v>
-      </c>
-      <c r="F9" s="66" t="s">
+      <c r="E9" s="82">
+        <v>2</v>
+      </c>
+      <c r="F9" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="66" t="s">
+      <c r="G9" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="66"/>
+      <c r="H9" s="80"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="68">
-        <v>2</v>
-      </c>
-      <c r="F11" s="66" t="s">
+      <c r="E11" s="82">
+        <v>2</v>
+      </c>
+      <c r="F11" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="66" t="s">
+      <c r="G11" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="66"/>
+      <c r="H11" s="80"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="68">
-        <v>2</v>
-      </c>
-      <c r="F13" s="66" t="s">
+      <c r="E13" s="82">
+        <v>2</v>
+      </c>
+      <c r="F13" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="66" t="s">
+      <c r="G13" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="66"/>
+      <c r="H13" s="80"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>12</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="68">
-        <v>2</v>
-      </c>
-      <c r="F15" s="66" t="s">
+      <c r="E15" s="82">
+        <v>2</v>
+      </c>
+      <c r="F15" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="66" t="s">
+      <c r="G15" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="66"/>
+      <c r="H15" s="80"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>14</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="67" t="s">
+      <c r="D17" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="68">
-        <v>2</v>
-      </c>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66" t="s">
+      <c r="E17" s="82">
+        <v>2</v>
+      </c>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="66"/>
+      <c r="H17" s="80"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>15</v>
       </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>16</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="67" t="s">
+      <c r="D19" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="68">
-        <v>2</v>
-      </c>
-      <c r="F19" s="66" t="s">
+      <c r="E19" s="82">
+        <v>2</v>
+      </c>
+      <c r="F19" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="66" t="s">
+      <c r="G19" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="66"/>
+      <c r="H19" s="80"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>17</v>
       </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>18</v>
       </c>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="68" t="s">
+      <c r="C21" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="68">
-        <v>2</v>
-      </c>
-      <c r="F21" s="66" t="s">
+      <c r="E21" s="82">
+        <v>2</v>
+      </c>
+      <c r="F21" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="66" t="s">
+      <c r="G21" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="66"/>
+      <c r="H21" s="80"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>19</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>20</v>
       </c>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="67" t="s">
+      <c r="D23" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="68">
-        <v>2</v>
-      </c>
-      <c r="F23" s="66" t="s">
+      <c r="E23" s="82">
+        <v>2</v>
+      </c>
+      <c r="F23" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="66" t="s">
+      <c r="G23" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="66"/>
+      <c r="H23" s="80"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>21</v>
       </c>
-      <c r="B24" s="67"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>22</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="68">
-        <v>2</v>
-      </c>
-      <c r="F25" s="66" t="s">
+      <c r="E25" s="82">
+        <v>2</v>
+      </c>
+      <c r="F25" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="66" t="s">
+      <c r="G25" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="66"/>
+      <c r="H25" s="80"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>23</v>
       </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>24</v>
       </c>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="67" t="s">
+      <c r="D27" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="68">
-        <v>2</v>
-      </c>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66" t="s">
+      <c r="E27" s="82">
+        <v>2</v>
+      </c>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="66"/>
+      <c r="H27" s="80"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>25</v>
       </c>
-      <c r="B28" s="67"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>26</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="67" t="s">
+      <c r="D29" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="68">
-        <v>2</v>
-      </c>
-      <c r="F29" s="66" t="s">
+      <c r="E29" s="82">
+        <v>2</v>
+      </c>
+      <c r="F29" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="G29" s="66" t="s">
+      <c r="G29" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="66"/>
+      <c r="H29" s="80"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>27</v>
       </c>
-      <c r="B30" s="67"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>28</v>
       </c>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="68" t="s">
+      <c r="C31" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="67" t="s">
+      <c r="D31" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="68">
-        <v>2</v>
-      </c>
-      <c r="F31" s="66" t="s">
+      <c r="E31" s="82">
+        <v>2</v>
+      </c>
+      <c r="F31" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="G31" s="66" t="s">
+      <c r="G31" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="66"/>
+      <c r="H31" s="80"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>29</v>
       </c>
-      <c r="B32" s="67"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>30</v>
       </c>
-      <c r="B33" s="67" t="s">
+      <c r="B33" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="68" t="s">
+      <c r="C33" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="67" t="s">
+      <c r="D33" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="68">
-        <v>2</v>
-      </c>
-      <c r="F33" s="66" t="s">
+      <c r="E33" s="82">
+        <v>2</v>
+      </c>
+      <c r="F33" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="66" t="s">
+      <c r="G33" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="66"/>
+      <c r="H33" s="80"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>31</v>
       </c>
-      <c r="B34" s="67"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>32</v>
       </c>
-      <c r="B35" s="67" t="s">
+      <c r="B35" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="68" t="s">
+      <c r="C35" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="67" t="s">
+      <c r="D35" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="68">
-        <v>2</v>
-      </c>
-      <c r="F35" s="66" t="s">
+      <c r="E35" s="82">
+        <v>2</v>
+      </c>
+      <c r="F35" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="66" t="s">
+      <c r="G35" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="66"/>
+      <c r="H35" s="80"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>33</v>
       </c>
-      <c r="B36" s="67"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>34</v>
       </c>
-      <c r="B37" s="67" t="s">
+      <c r="B37" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="68" t="s">
+      <c r="C37" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="67" t="s">
+      <c r="D37" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="68">
-        <v>2</v>
-      </c>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66" t="s">
+      <c r="E37" s="82">
+        <v>2</v>
+      </c>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="H37" s="66"/>
+      <c r="H37" s="80"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>35</v>
       </c>
-      <c r="B38" s="67"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="80"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>36</v>
       </c>
-      <c r="B39" s="67" t="s">
+      <c r="B39" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="68" t="s">
+      <c r="C39" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="67" t="s">
+      <c r="D39" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="68">
-        <v>2</v>
-      </c>
-      <c r="F39" s="66" t="s">
+      <c r="E39" s="82">
+        <v>2</v>
+      </c>
+      <c r="F39" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="G39" s="66" t="s">
+      <c r="G39" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="H39" s="66"/>
+      <c r="H39" s="80"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>37</v>
       </c>
-      <c r="B40" s="67"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="66"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="80"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>38</v>
       </c>
-      <c r="B41" s="67" t="s">
+      <c r="B41" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="68" t="s">
+      <c r="C41" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="67" t="s">
+      <c r="D41" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="68">
-        <v>2</v>
-      </c>
-      <c r="F41" s="66" t="s">
+      <c r="E41" s="82">
+        <v>2</v>
+      </c>
+      <c r="F41" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="G41" s="66" t="s">
+      <c r="G41" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="H41" s="66"/>
+      <c r="H41" s="80"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>39</v>
       </c>
-      <c r="B42" s="67"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="80"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>40</v>
       </c>
-      <c r="B43" s="67" t="s">
+      <c r="B43" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="68" t="s">
+      <c r="C43" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="67" t="s">
+      <c r="D43" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="68">
-        <v>2</v>
-      </c>
-      <c r="F43" s="66" t="s">
+      <c r="E43" s="82">
+        <v>2</v>
+      </c>
+      <c r="F43" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="G43" s="66" t="s">
+      <c r="G43" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="H43" s="66"/>
+      <c r="H43" s="80"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>41</v>
       </c>
-      <c r="B44" s="67"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
+      <c r="B44" s="81"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="80"/>
+      <c r="H44" s="80"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>42</v>
       </c>
-      <c r="B45" s="67" t="s">
+      <c r="B45" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="68" t="s">
+      <c r="C45" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="67" t="s">
+      <c r="D45" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="68">
-        <v>2</v>
-      </c>
-      <c r="F45" s="66" t="s">
+      <c r="E45" s="82">
+        <v>2</v>
+      </c>
+      <c r="F45" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="G45" s="66" t="s">
+      <c r="G45" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="66"/>
+      <c r="H45" s="80"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>43</v>
       </c>
-      <c r="B46" s="67"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="66"/>
-      <c r="H46" s="66"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="80"/>
+      <c r="H46" s="80"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>44</v>
       </c>
-      <c r="B47" s="67" t="s">
+      <c r="B47" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="68" t="s">
+      <c r="C47" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="67" t="s">
+      <c r="D47" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="68">
-        <v>2</v>
-      </c>
-      <c r="F47" s="66"/>
-      <c r="G47" s="66" t="s">
+      <c r="E47" s="82">
+        <v>2</v>
+      </c>
+      <c r="F47" s="80"/>
+      <c r="G47" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="H47" s="66"/>
+      <c r="H47" s="80"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>45</v>
       </c>
-      <c r="B48" s="67"/>
-      <c r="C48" s="68"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="66"/>
-      <c r="H48" s="66"/>
+      <c r="B48" s="81"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="80"/>
+      <c r="H48" s="80"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
@@ -2562,10 +2627,10 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9:H10"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2582,16 +2647,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -2667,25 +2732,25 @@
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="73">
+      <c r="E5" s="87">
         <v>4</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="70" t="s">
+      <c r="G5" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="84" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2693,779 +2758,779 @@
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="68">
-        <v>2</v>
-      </c>
-      <c r="F9" s="68" t="s">
+      <c r="E9" s="82">
+        <v>2</v>
+      </c>
+      <c r="F9" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="66" t="s">
+      <c r="G9" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="66"/>
+      <c r="H9" s="80"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="68">
-        <v>2</v>
-      </c>
-      <c r="F11" s="68" t="s">
+      <c r="E11" s="82">
+        <v>2</v>
+      </c>
+      <c r="F11" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="66" t="s">
+      <c r="G11" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="66"/>
+      <c r="H11" s="80"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="68">
-        <v>2</v>
-      </c>
-      <c r="F13" s="68" t="s">
+      <c r="E13" s="82">
+        <v>2</v>
+      </c>
+      <c r="F13" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="66" t="s">
+      <c r="G13" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="66"/>
+      <c r="H13" s="80"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>12</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="68">
-        <v>2</v>
-      </c>
-      <c r="F15" s="68" t="s">
+      <c r="E15" s="82">
+        <v>2</v>
+      </c>
+      <c r="F15" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="66" t="s">
+      <c r="G15" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="66"/>
+      <c r="H15" s="80"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>14</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="67" t="s">
+      <c r="D17" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="68">
-        <v>2</v>
-      </c>
-      <c r="F17" s="68"/>
-      <c r="G17" s="66" t="s">
+      <c r="E17" s="82">
+        <v>2</v>
+      </c>
+      <c r="F17" s="82"/>
+      <c r="G17" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="66"/>
+      <c r="H17" s="80"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>15</v>
       </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>16</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="67" t="s">
+      <c r="D19" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="68">
-        <v>2</v>
-      </c>
-      <c r="F19" s="68" t="s">
+      <c r="E19" s="82">
+        <v>2</v>
+      </c>
+      <c r="F19" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="66" t="s">
+      <c r="G19" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="66"/>
+      <c r="H19" s="80"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>17</v>
       </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>18</v>
       </c>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="68" t="s">
+      <c r="C21" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="68">
-        <v>2</v>
-      </c>
-      <c r="F21" s="68" t="s">
+      <c r="E21" s="82">
+        <v>2</v>
+      </c>
+      <c r="F21" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="66" t="s">
+      <c r="G21" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="66"/>
+      <c r="H21" s="80"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>19</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>20</v>
       </c>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="67" t="s">
+      <c r="D23" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="68">
-        <v>2</v>
-      </c>
-      <c r="F23" s="68" t="s">
+      <c r="E23" s="82">
+        <v>2</v>
+      </c>
+      <c r="F23" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="66" t="s">
+      <c r="G23" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="66"/>
+      <c r="H23" s="80"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>21</v>
       </c>
-      <c r="B24" s="67"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>22</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="68">
-        <v>2</v>
-      </c>
-      <c r="F25" s="68" t="s">
+      <c r="E25" s="82">
+        <v>2</v>
+      </c>
+      <c r="F25" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="66" t="s">
+      <c r="G25" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="66"/>
+      <c r="H25" s="80"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>23</v>
       </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>24</v>
       </c>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="67" t="s">
+      <c r="D27" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="68">
-        <v>2</v>
-      </c>
-      <c r="F27" s="68"/>
-      <c r="G27" s="66" t="s">
+      <c r="E27" s="82">
+        <v>2</v>
+      </c>
+      <c r="F27" s="82"/>
+      <c r="G27" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="66"/>
+      <c r="H27" s="80"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>25</v>
       </c>
-      <c r="B28" s="67"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>26</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="67" t="s">
+      <c r="D29" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="68">
-        <v>2</v>
-      </c>
-      <c r="F29" s="68" t="s">
+      <c r="E29" s="82">
+        <v>2</v>
+      </c>
+      <c r="F29" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="G29" s="66" t="s">
+      <c r="G29" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="66"/>
+      <c r="H29" s="80"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>27</v>
       </c>
-      <c r="B30" s="67"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>28</v>
       </c>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="68" t="s">
+      <c r="C31" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="67" t="s">
+      <c r="D31" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="68">
-        <v>2</v>
-      </c>
-      <c r="F31" s="68" t="s">
+      <c r="E31" s="82">
+        <v>2</v>
+      </c>
+      <c r="F31" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="G31" s="66" t="s">
+      <c r="G31" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="66"/>
+      <c r="H31" s="80"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>29</v>
       </c>
-      <c r="B32" s="67"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>30</v>
       </c>
-      <c r="B33" s="67" t="s">
+      <c r="B33" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="68" t="s">
+      <c r="C33" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="67" t="s">
+      <c r="D33" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="68">
-        <v>2</v>
-      </c>
-      <c r="F33" s="68" t="s">
+      <c r="E33" s="82">
+        <v>2</v>
+      </c>
+      <c r="F33" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="66" t="s">
+      <c r="G33" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="66"/>
+      <c r="H33" s="80"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>31</v>
       </c>
-      <c r="B34" s="67"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>32</v>
       </c>
-      <c r="B35" s="67" t="s">
+      <c r="B35" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="68" t="s">
+      <c r="C35" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="67" t="s">
+      <c r="D35" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="68">
-        <v>2</v>
-      </c>
-      <c r="F35" s="68" t="s">
+      <c r="E35" s="82">
+        <v>2</v>
+      </c>
+      <c r="F35" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="66" t="s">
+      <c r="G35" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="66"/>
+      <c r="H35" s="80"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>33</v>
       </c>
-      <c r="B36" s="67"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>34</v>
       </c>
-      <c r="B37" s="67" t="s">
+      <c r="B37" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="68" t="s">
+      <c r="C37" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="67" t="s">
+      <c r="D37" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="68">
-        <v>2</v>
-      </c>
-      <c r="F37" s="68"/>
-      <c r="G37" s="66" t="s">
+      <c r="E37" s="82">
+        <v>2</v>
+      </c>
+      <c r="F37" s="82"/>
+      <c r="G37" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="H37" s="66"/>
+      <c r="H37" s="80"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>35</v>
       </c>
-      <c r="B38" s="67"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="80"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>36</v>
       </c>
-      <c r="B39" s="67" t="s">
+      <c r="B39" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="68" t="s">
+      <c r="C39" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="67" t="s">
+      <c r="D39" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="68">
-        <v>2</v>
-      </c>
-      <c r="F39" s="68" t="s">
+      <c r="E39" s="82">
+        <v>2</v>
+      </c>
+      <c r="F39" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="G39" s="66" t="s">
+      <c r="G39" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="H39" s="66"/>
+      <c r="H39" s="80"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>37</v>
       </c>
-      <c r="B40" s="67"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="66"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="80"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>38</v>
       </c>
-      <c r="B41" s="67" t="s">
+      <c r="B41" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="68" t="s">
+      <c r="C41" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="67" t="s">
+      <c r="D41" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="68">
-        <v>2</v>
-      </c>
-      <c r="F41" s="68" t="s">
+      <c r="E41" s="82">
+        <v>2</v>
+      </c>
+      <c r="F41" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="G41" s="66" t="s">
+      <c r="G41" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="H41" s="66"/>
+      <c r="H41" s="80"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>39</v>
       </c>
-      <c r="B42" s="67"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="80"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>40</v>
       </c>
-      <c r="B43" s="67" t="s">
+      <c r="B43" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="68" t="s">
+      <c r="C43" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="67" t="s">
+      <c r="D43" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="68">
-        <v>2</v>
-      </c>
-      <c r="F43" s="68" t="s">
+      <c r="E43" s="82">
+        <v>2</v>
+      </c>
+      <c r="F43" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="G43" s="66" t="s">
+      <c r="G43" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="H43" s="66"/>
+      <c r="H43" s="80"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>41</v>
       </c>
-      <c r="B44" s="67"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
+      <c r="B44" s="81"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="80"/>
+      <c r="H44" s="80"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>42</v>
       </c>
-      <c r="B45" s="67" t="s">
+      <c r="B45" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="68" t="s">
+      <c r="C45" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="67" t="s">
+      <c r="D45" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="68">
-        <v>2</v>
-      </c>
-      <c r="F45" s="68" t="s">
+      <c r="E45" s="82">
+        <v>2</v>
+      </c>
+      <c r="F45" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="G45" s="66" t="s">
+      <c r="G45" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="66"/>
+      <c r="H45" s="80"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>43</v>
       </c>
-      <c r="B46" s="67"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="66"/>
-      <c r="H46" s="66"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="80"/>
+      <c r="H46" s="80"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>44</v>
       </c>
-      <c r="B47" s="67" t="s">
+      <c r="B47" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="68" t="s">
+      <c r="C47" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="67" t="s">
+      <c r="D47" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="68">
-        <v>2</v>
-      </c>
-      <c r="F47" s="68"/>
-      <c r="G47" s="66" t="s">
+      <c r="E47" s="82">
+        <v>2</v>
+      </c>
+      <c r="F47" s="82"/>
+      <c r="G47" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="H47" s="66"/>
+      <c r="H47" s="80"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>45</v>
       </c>
-      <c r="B48" s="67"/>
-      <c r="C48" s="68"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="66"/>
-      <c r="H48" s="66"/>
+      <c r="B48" s="81"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="80"/>
+      <c r="H48" s="80"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>46</v>
       </c>
-      <c r="B49" s="67" t="s">
+      <c r="B49" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="68"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="68">
-        <v>2</v>
-      </c>
-      <c r="F49" s="68" t="s">
+      <c r="C49" s="82"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="82">
+        <v>2</v>
+      </c>
+      <c r="F49" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G49" s="66"/>
-      <c r="H49" s="66"/>
+      <c r="G49" s="80"/>
+      <c r="H49" s="80"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>47</v>
       </c>
-      <c r="B50" s="67"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="66"/>
+      <c r="B50" s="81"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="80"/>
+      <c r="H50" s="80"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
@@ -3658,8 +3723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E80D12-58E6-4371-A6C7-1CD8C8436AF0}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3679,16 +3744,16 @@
       <c r="A1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="76" t="s">
+      <c r="B1" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
       <c r="J1" t="s">
         <v>63</v>
       </c>
@@ -3697,776 +3762,2740 @@
       <c r="A2" t="s">
         <v>64</v>
       </c>
-      <c r="D2">
-        <f>LEN(D1)/2</f>
+      <c r="B2">
+        <f>LEN(B1)/2</f>
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50" t="s">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="51" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="23">
         <v>1</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="23">
         <v>1</v>
       </c>
-      <c r="D5" s="25" t="str">
-        <f>MID($D$1,(B5-1)*2+1,C5*2)</f>
+      <c r="D5" s="24" t="str">
+        <f t="shared" ref="D5:D28" si="0">MID($B$1,(B5-1)*2+1,C5*2)</f>
         <v>04</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="24">
         <f>HEX2DEC(D5)</f>
         <v>4</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="26" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="28">
         <f>B5+C5</f>
         <v>2</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="28">
         <v>1</v>
       </c>
-      <c r="D6" s="30" t="str">
-        <f>MID($D$1,(B6-1)*2+1,C6*2)</f>
+      <c r="D6" s="29" t="str">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E6" s="30">
-        <f t="shared" ref="E6:E27" si="0">HEX2DEC(D6)</f>
+      <c r="E6" s="29">
+        <f t="shared" ref="E6:E27" si="1">HEX2DEC(D6)</f>
         <v>23</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="29">
         <f>(E6/10)+10</f>
         <v>12.3</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="30" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="33">
-        <f t="shared" ref="B7:B28" si="1">B6+C6</f>
+      <c r="B7" s="32">
+        <f t="shared" ref="B7:B28" si="2">B6+C6</f>
         <v>3</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="66">
         <v>4</v>
       </c>
-      <c r="D7" s="34" t="str">
-        <f>MID($D$1,(B7-1)*2+1,C7*2)</f>
+      <c r="D7" s="33" t="str">
+        <f t="shared" si="0"/>
         <v>62393bb0</v>
       </c>
-      <c r="E7" s="34">
-        <f t="shared" si="0"/>
+      <c r="E7" s="33">
+        <f t="shared" si="1"/>
         <v>1647918000</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48">
+      <c r="F7" s="47"/>
+      <c r="G7" s="47">
         <f>E7</f>
         <v>1647918000</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="34">
         <f>(G7)/86400 + DATE(1970,1,1)</f>
         <v>44642.125</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="29" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="45">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C8" s="45">
+        <v>2</v>
+      </c>
+      <c r="D8" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>0043</v>
+      </c>
+      <c r="E8" s="24">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="C8" s="46">
-        <v>2</v>
-      </c>
-      <c r="D8" s="25" t="str">
-        <f t="shared" ref="D8:D28" si="2">MID($D$1,(B8-1)*2+1,C8*2)</f>
-        <v>0043</v>
-      </c>
-      <c r="E8" s="25">
-        <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="24">
         <f>(E8)/10</f>
         <v>6.7</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="H8" s="41" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="53">
+      <c r="B9" s="52">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="C9" s="52">
+        <v>2</v>
+      </c>
+      <c r="D9" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="E9" s="29">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="C9" s="53">
-        <v>2</v>
-      </c>
-      <c r="D9" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>0000</v>
-      </c>
-      <c r="E9" s="30">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="29">
         <f>(E9)/1000</f>
         <v>0</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="30" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10" s="52">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="C10" s="52">
+        <v>2</v>
+      </c>
+      <c r="D10" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="E10" s="29">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="C10" s="53">
-        <v>2</v>
-      </c>
-      <c r="D10" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>0000</v>
-      </c>
-      <c r="E10" s="30">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="29">
         <f>(E10)/10</f>
         <v>0</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="30" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="53">
+      <c r="B11" s="52">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="C11" s="52">
+        <v>2</v>
+      </c>
+      <c r="D11" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>0051</v>
+      </c>
+      <c r="E11" s="29">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="C11" s="53">
-        <v>2</v>
-      </c>
-      <c r="D11" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>0051</v>
-      </c>
-      <c r="E11" s="30">
-        <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="29">
         <f>(E11)/10</f>
         <v>8.1</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="47">
+      <c r="B12" s="46">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C12" s="46">
+        <v>2</v>
+      </c>
+      <c r="D12" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>0008</v>
+      </c>
+      <c r="E12" s="33">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="C12" s="47">
-        <v>2</v>
-      </c>
-      <c r="D12" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>0008</v>
-      </c>
-      <c r="E12" s="34">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34">
+      <c r="F12" s="33"/>
+      <c r="G12" s="33">
         <f>E12</f>
         <v>8</v>
       </c>
-      <c r="H12" s="41" t="s">
+      <c r="H12" s="40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="45">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="C13" s="45">
+        <v>2</v>
+      </c>
+      <c r="D13" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>0043</v>
+      </c>
+      <c r="E13" s="24">
         <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="C13" s="46">
-        <v>2</v>
-      </c>
-      <c r="D13" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>0043</v>
-      </c>
-      <c r="E13" s="25">
-        <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="24">
         <f>(E13)/10</f>
         <v>6.7</v>
       </c>
-      <c r="H13" s="42" t="s">
+      <c r="H13" s="41" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="53">
+      <c r="B14" s="52">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="C14" s="52">
+        <v>2</v>
+      </c>
+      <c r="D14" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="E14" s="29">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="C14" s="53">
-        <v>2</v>
-      </c>
-      <c r="D14" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>0000</v>
-      </c>
-      <c r="E14" s="30">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="29">
         <f>(E14)/1000</f>
         <v>0</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="30" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="53">
+      <c r="B15" s="52">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="C15" s="52">
+        <v>2</v>
+      </c>
+      <c r="D15" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="E15" s="29">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="C15" s="53">
-        <v>2</v>
-      </c>
-      <c r="D15" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>0000</v>
-      </c>
-      <c r="E15" s="30">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="29">
         <f>(E15)/10</f>
         <v>0</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="H15" s="30" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="53">
+      <c r="B16" s="52">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="C16" s="52">
+        <v>2</v>
+      </c>
+      <c r="D16" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>0051</v>
+      </c>
+      <c r="E16" s="29">
         <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="C16" s="53">
-        <v>2</v>
-      </c>
-      <c r="D16" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>0051</v>
-      </c>
-      <c r="E16" s="30">
-        <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="29">
         <f>(E16)/10</f>
         <v>8.1</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="55">
+      <c r="B17" s="54">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="C17" s="54">
+        <v>2</v>
+      </c>
+      <c r="D17" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>0005</v>
+      </c>
+      <c r="E17" s="43">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="C17" s="55">
-        <v>2</v>
-      </c>
-      <c r="D17" s="44" t="str">
-        <f t="shared" si="2"/>
-        <v>0005</v>
-      </c>
-      <c r="E17" s="44">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44">
+      <c r="F17" s="43"/>
+      <c r="G17" s="43">
         <f>(E17)</f>
         <v>5</v>
       </c>
-      <c r="H17" s="45" t="s">
+      <c r="H17" s="44" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="46">
+      <c r="B18" s="45">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="C18" s="45">
+        <v>2</v>
+      </c>
+      <c r="D18" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>0043</v>
+      </c>
+      <c r="E18" s="24">
         <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="C18" s="46">
-        <v>2</v>
-      </c>
-      <c r="D18" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>0043</v>
-      </c>
-      <c r="E18" s="25">
-        <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="24">
         <f>(E18)/10</f>
         <v>6.7</v>
       </c>
-      <c r="H18" s="42" t="s">
+      <c r="H18" s="41" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="53">
+      <c r="B19" s="52">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="C19" s="52">
+        <v>2</v>
+      </c>
+      <c r="D19" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="E19" s="29">
         <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="C19" s="53">
-        <v>2</v>
-      </c>
-      <c r="D19" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>0000</v>
-      </c>
-      <c r="E19" s="30">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="29">
         <f>(E19)/1000</f>
         <v>0</v>
       </c>
-      <c r="H19" s="31" t="s">
+      <c r="H19" s="30" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="53">
+      <c r="B20" s="52">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="C20" s="52">
+        <v>2</v>
+      </c>
+      <c r="D20" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="E20" s="29">
         <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="C20" s="53">
-        <v>2</v>
-      </c>
-      <c r="D20" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>0000</v>
-      </c>
-      <c r="E20" s="30">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="29">
         <f>(E20)/10</f>
         <v>0</v>
       </c>
-      <c r="H20" s="31" t="s">
+      <c r="H20" s="30" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="53">
+      <c r="B21" s="52">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="C21" s="52">
+        <v>2</v>
+      </c>
+      <c r="D21" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>0051</v>
+      </c>
+      <c r="E21" s="29">
         <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="C21" s="53">
-        <v>2</v>
-      </c>
-      <c r="D21" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>0051</v>
-      </c>
-      <c r="E21" s="30">
-        <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="29">
         <f>(E21)/10</f>
         <v>8.1</v>
       </c>
-      <c r="H21" s="31" t="s">
+      <c r="H21" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="47">
+      <c r="B22" s="46">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="C22" s="46">
+        <v>2</v>
+      </c>
+      <c r="D22" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>0005</v>
+      </c>
+      <c r="E22" s="33">
         <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="C22" s="47">
-        <v>2</v>
-      </c>
-      <c r="D22" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>0005</v>
-      </c>
-      <c r="E22" s="34">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34">
+      <c r="F22" s="33"/>
+      <c r="G22" s="33">
         <f>(E22)</f>
         <v>5</v>
       </c>
-      <c r="H22" s="41" t="s">
+      <c r="H22" s="40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="56">
+      <c r="B23" s="55">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="C23" s="55">
+        <v>2</v>
+      </c>
+      <c r="D23" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>0043</v>
+      </c>
+      <c r="E23" s="36">
         <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="C23" s="56">
-        <v>2</v>
-      </c>
-      <c r="D23" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v>0043</v>
-      </c>
-      <c r="E23" s="37">
-        <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="36">
         <f>(E23)/10</f>
         <v>6.7</v>
       </c>
-      <c r="H23" s="38" t="s">
+      <c r="H23" s="37" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="53">
+      <c r="B24" s="52">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="C24" s="52">
+        <v>2</v>
+      </c>
+      <c r="D24" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="E24" s="29">
         <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="C24" s="53">
-        <v>2</v>
-      </c>
-      <c r="D24" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>0000</v>
-      </c>
-      <c r="E24" s="30">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="G24" s="30">
+      <c r="G24" s="29">
         <f>(E24)/1000</f>
         <v>0</v>
       </c>
-      <c r="H24" s="31" t="s">
+      <c r="H24" s="30" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="53">
+      <c r="B25" s="52">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="C25" s="52">
+        <v>2</v>
+      </c>
+      <c r="D25" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="E25" s="29">
         <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="C25" s="53">
-        <v>2</v>
-      </c>
-      <c r="D25" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>0000</v>
-      </c>
-      <c r="E25" s="30">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="30">
+      <c r="G25" s="29">
         <f>(E25)/10</f>
         <v>0</v>
       </c>
-      <c r="H25" s="31" t="s">
+      <c r="H25" s="30" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="53">
+      <c r="B26" s="52">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="C26" s="52">
+        <v>2</v>
+      </c>
+      <c r="D26" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>0051</v>
+      </c>
+      <c r="E26" s="29">
         <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="C26" s="53">
-        <v>2</v>
-      </c>
-      <c r="D26" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>0051</v>
-      </c>
-      <c r="E26" s="30">
-        <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="30">
+      <c r="G26" s="29">
         <f>(E26)/10</f>
         <v>8.1</v>
       </c>
-      <c r="H26" s="31" t="s">
+      <c r="H26" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="55">
+      <c r="B27" s="54">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="C27" s="54">
+        <v>2</v>
+      </c>
+      <c r="D27" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>0005</v>
+      </c>
+      <c r="E27" s="43">
         <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="C27" s="55">
-        <v>2</v>
-      </c>
-      <c r="D27" s="44" t="str">
-        <f t="shared" si="2"/>
-        <v>0005</v>
-      </c>
-      <c r="E27" s="44">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44">
+      <c r="F27" s="43"/>
+      <c r="G27" s="43">
         <f>(E27)</f>
         <v>5</v>
       </c>
-      <c r="H27" s="45" t="s">
+      <c r="H27" s="44" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="46">
-        <f t="shared" si="1"/>
+      <c r="B28" s="45">
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="C28" s="46">
-        <v>2</v>
-      </c>
-      <c r="D28" s="25" t="str">
-        <f t="shared" si="2"/>
+      <c r="C28" s="45">
+        <v>2</v>
+      </c>
+      <c r="D28" s="24" t="str">
+        <f t="shared" si="0"/>
         <v>0104</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25" t="str">
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24" t="str">
         <f>IF(HEX2DEC(D28)-G29&gt;0,"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="H28" s="42"/>
-      <c r="I28" s="57" t="s">
+      <c r="H28" s="41"/>
+      <c r="I28" s="56" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34" t="s">
+      <c r="A29" s="39"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="G29" s="34">
+      <c r="G29" s="33">
         <f>MOD(HEX2DEC(D28),HEX2DEC("7FFF"))</f>
         <v>260</v>
       </c>
-      <c r="H29" s="41" t="s">
+      <c r="H29" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="I29" s="58" t="s">
+      <c r="I29" s="57" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="B1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E09F0DA-5E11-42C4-AF0C-02E1FEA4C1EC}">
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51:F52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" style="58" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="58" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="58" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="58" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.5703125" style="65" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="58"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="60">
+        <v>1</v>
+      </c>
+      <c r="F3" s="60"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="60">
+        <v>1</v>
+      </c>
+      <c r="F4" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="87">
+        <v>4</v>
+      </c>
+      <c r="F5" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="85"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="85"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="86"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="82">
+        <v>2</v>
+      </c>
+      <c r="F9" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="81"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" s="81"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="81"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="82">
+        <v>2</v>
+      </c>
+      <c r="F11" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="81"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>9</v>
+      </c>
+      <c r="B12" s="81"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="81"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>10</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="82">
+        <v>2</v>
+      </c>
+      <c r="F13" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="81"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>11</v>
+      </c>
+      <c r="B14" s="81"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="81"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>12</v>
+      </c>
+      <c r="B15" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="82">
+        <v>2</v>
+      </c>
+      <c r="F15" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="81"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>13</v>
+      </c>
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="81"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>14</v>
+      </c>
+      <c r="B17" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="82">
+        <v>2</v>
+      </c>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="81"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>15</v>
+      </c>
+      <c r="B18" s="81"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="81"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>16</v>
+      </c>
+      <c r="B19" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="82">
+        <v>2</v>
+      </c>
+      <c r="F19" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="81"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>17</v>
+      </c>
+      <c r="B20" s="81"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="81"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>18</v>
+      </c>
+      <c r="B21" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="82">
+        <v>2</v>
+      </c>
+      <c r="F21" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="81"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>19</v>
+      </c>
+      <c r="B22" s="81"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="81"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>20</v>
+      </c>
+      <c r="B23" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="82">
+        <v>2</v>
+      </c>
+      <c r="F23" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="81"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>21</v>
+      </c>
+      <c r="B24" s="81"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="81"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>22</v>
+      </c>
+      <c r="B25" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="82">
+        <v>2</v>
+      </c>
+      <c r="F25" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="81"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>23</v>
+      </c>
+      <c r="B26" s="81"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="81"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>24</v>
+      </c>
+      <c r="B27" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="82">
+        <v>2</v>
+      </c>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="81"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>25</v>
+      </c>
+      <c r="B28" s="81"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="81"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>26</v>
+      </c>
+      <c r="B29" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="82">
+        <v>2</v>
+      </c>
+      <c r="F29" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="81"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>27</v>
+      </c>
+      <c r="B30" s="81"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="81"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>28</v>
+      </c>
+      <c r="B31" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="82">
+        <v>2</v>
+      </c>
+      <c r="F31" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="81"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>29</v>
+      </c>
+      <c r="B32" s="81"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="81"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>30</v>
+      </c>
+      <c r="B33" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="82">
+        <v>2</v>
+      </c>
+      <c r="F33" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="81"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>31</v>
+      </c>
+      <c r="B34" s="81"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="81"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>32</v>
+      </c>
+      <c r="B35" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="82">
+        <v>2</v>
+      </c>
+      <c r="F35" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="81"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>33</v>
+      </c>
+      <c r="B36" s="81"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="81"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>34</v>
+      </c>
+      <c r="B37" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="82">
+        <v>2</v>
+      </c>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="81"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>35</v>
+      </c>
+      <c r="B38" s="81"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="81"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>36</v>
+      </c>
+      <c r="B39" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="82">
+        <v>2</v>
+      </c>
+      <c r="F39" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="81"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>37</v>
+      </c>
+      <c r="B40" s="81"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="82"/>
+      <c r="H40" s="81"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>38</v>
+      </c>
+      <c r="B41" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="82">
+        <v>2</v>
+      </c>
+      <c r="F41" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="G41" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="81"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>39</v>
+      </c>
+      <c r="B42" s="81"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="82"/>
+      <c r="H42" s="81"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>40</v>
+      </c>
+      <c r="B43" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="82">
+        <v>2</v>
+      </c>
+      <c r="F43" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="G43" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="81"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>41</v>
+      </c>
+      <c r="B44" s="81"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="82"/>
+      <c r="H44" s="81"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>42</v>
+      </c>
+      <c r="B45" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="82">
+        <v>2</v>
+      </c>
+      <c r="F45" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="G45" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="81"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>43</v>
+      </c>
+      <c r="B46" s="81"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="81"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>44</v>
+      </c>
+      <c r="B47" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="82">
+        <v>2</v>
+      </c>
+      <c r="F47" s="82"/>
+      <c r="G47" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" s="81"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>45</v>
+      </c>
+      <c r="B48" s="81"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="81"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>46</v>
+      </c>
+      <c r="B49" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="82"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="82">
+        <v>2</v>
+      </c>
+      <c r="F49" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" s="82"/>
+      <c r="H49" s="81"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>47</v>
+      </c>
+      <c r="B50" s="81"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="81"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>48</v>
+      </c>
+      <c r="B51" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="82"/>
+      <c r="D51" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="82">
+        <v>2</v>
+      </c>
+      <c r="F51" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="G51" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" s="81" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>49</v>
+      </c>
+      <c r="B52" s="81"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="81"/>
+    </row>
+  </sheetData>
+  <mergeCells count="162">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E274D8F9-34EE-4FB7-9720-D4FBE2D796A6}">
+  <dimension ref="A1:J33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2">
+        <f>LEN(B1)/2</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="23">
+        <v>1</v>
+      </c>
+      <c r="C5" s="23">
+        <v>1</v>
+      </c>
+      <c r="D5" s="24" t="str">
+        <f t="shared" ref="D5:D28" si="0">MID($B$1,(B5-1)*2+1,C5*2)</f>
+        <v>05</v>
+      </c>
+      <c r="E5" s="24">
+        <f>HEX2DEC(D5)</f>
+        <v>5</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="28">
+        <f>B5+C5</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="28">
+        <v>1</v>
+      </c>
+      <c r="D6" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E6" s="29">
+        <f t="shared" ref="E6:E27" si="1">HEX2DEC(D6)</f>
+        <v>23</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="29">
+        <f>(E6/10)+10</f>
+        <v>12.3</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="32">
+        <f t="shared" ref="B7:B28" si="2">B6+C6</f>
+        <v>3</v>
+      </c>
+      <c r="C7" s="66">
+        <v>4</v>
+      </c>
+      <c r="D7" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>62393bb0</v>
+      </c>
+      <c r="E7" s="33">
+        <f t="shared" si="1"/>
+        <v>1647918000</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47">
+        <f>E7</f>
+        <v>1647918000</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="34">
+        <f>(G7)/86400 + DATE(1970,1,1)</f>
+        <v>44642.125</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="45">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C8" s="45">
+        <v>2</v>
+      </c>
+      <c r="D8" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>0043</v>
+      </c>
+      <c r="E8" s="24">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="24">
+        <f>(E8)/10</f>
+        <v>6.7</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="52">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="C9" s="52">
+        <v>2</v>
+      </c>
+      <c r="D9" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="E9" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="29">
+        <f>(E9)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="52">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="C10" s="52">
+        <v>2</v>
+      </c>
+      <c r="D10" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="E10" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="29">
+        <f>(E10)/10</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="72"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="52">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="C11" s="52">
+        <v>2</v>
+      </c>
+      <c r="D11" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>0051</v>
+      </c>
+      <c r="E11" s="29">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="29">
+        <f>(E11)/10</f>
+        <v>8.1</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="46">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C12" s="46">
+        <v>2</v>
+      </c>
+      <c r="D12" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>0008</v>
+      </c>
+      <c r="E12" s="33">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33">
+        <f>E12</f>
+        <v>8</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="45">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="C13" s="45">
+        <v>2</v>
+      </c>
+      <c r="D13" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>0043</v>
+      </c>
+      <c r="E13" s="24">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="24">
+        <f>(E13)/10</f>
+        <v>6.7</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="52">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="C14" s="52">
+        <v>2</v>
+      </c>
+      <c r="D14" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="E14" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="29">
+        <f>(E14)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="52">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="C15" s="52">
+        <v>2</v>
+      </c>
+      <c r="D15" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="E15" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="29">
+        <f>(E15)/10</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="52">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="C16" s="52">
+        <v>2</v>
+      </c>
+      <c r="D16" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>0051</v>
+      </c>
+      <c r="E16" s="29">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="29">
+        <f>(E16)/10</f>
+        <v>8.1</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="54">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="C17" s="54">
+        <v>2</v>
+      </c>
+      <c r="D17" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>0005</v>
+      </c>
+      <c r="E17" s="43">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43">
+        <f>(E17)</f>
+        <v>5</v>
+      </c>
+      <c r="H17" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="45">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="C18" s="45">
+        <v>2</v>
+      </c>
+      <c r="D18" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>0043</v>
+      </c>
+      <c r="E18" s="24">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="24">
+        <f>(E18)/10</f>
+        <v>6.7</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="52">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="C19" s="52">
+        <v>2</v>
+      </c>
+      <c r="D19" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="E19" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="29">
+        <f>(E19)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="52">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="C20" s="52">
+        <v>2</v>
+      </c>
+      <c r="D20" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="E20" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="29">
+        <f>(E20)/10</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="52">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="C21" s="52">
+        <v>2</v>
+      </c>
+      <c r="D21" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>0051</v>
+      </c>
+      <c r="E21" s="29">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="29">
+        <f>(E21)/10</f>
+        <v>8.1</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="46">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="C22" s="46">
+        <v>2</v>
+      </c>
+      <c r="D22" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>0005</v>
+      </c>
+      <c r="E22" s="33">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33">
+        <f>(E22)</f>
+        <v>5</v>
+      </c>
+      <c r="H22" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="55">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="C23" s="55">
+        <v>2</v>
+      </c>
+      <c r="D23" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>0043</v>
+      </c>
+      <c r="E23" s="36">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="36">
+        <f>(E23)/10</f>
+        <v>6.7</v>
+      </c>
+      <c r="H23" s="37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="52">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="C24" s="52">
+        <v>2</v>
+      </c>
+      <c r="D24" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="E24" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="29">
+        <f>(E24)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="52">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="C25" s="52">
+        <v>2</v>
+      </c>
+      <c r="D25" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="E25" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="29">
+        <f>(E25)/10</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="52">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="C26" s="52">
+        <v>2</v>
+      </c>
+      <c r="D26" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>0051</v>
+      </c>
+      <c r="E26" s="29">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="29">
+        <f>(E26)/10</f>
+        <v>8.1</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="54">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="C27" s="54">
+        <v>2</v>
+      </c>
+      <c r="D27" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>0005</v>
+      </c>
+      <c r="E27" s="43">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43">
+        <f>(E27)</f>
+        <v>5</v>
+      </c>
+      <c r="H27" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="45">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="C28" s="45">
+        <v>2</v>
+      </c>
+      <c r="D28" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>0104</v>
+      </c>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="24" t="str">
+        <f>IF(HEX2DEC(D28)-G29&gt;0,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="H28" s="41"/>
+      <c r="I28" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="53"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" s="43">
+        <f>MOD(HEX2DEC(D28),HEX2DEC("7FFF"))</f>
+        <v>260</v>
+      </c>
+      <c r="H29" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="I29" s="57" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="69">
+        <f>B28+C28</f>
+        <v>49</v>
+      </c>
+      <c r="C30" s="69">
+        <v>2</v>
+      </c>
+      <c r="D30" s="70" t="str">
+        <f>MID($B$1,(B30-1)*2+1,C30*2)</f>
+        <v>03D6</v>
+      </c>
+      <c r="E30" s="70">
+        <f>HEX2DEC(D30)</f>
+        <v>982</v>
+      </c>
+      <c r="F30" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" s="68">
+        <f>(E30/10)-100</f>
+        <v>-1.7999999999999972</v>
+      </c>
+      <c r="H30" s="71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I31" s="72"/>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I33" s="72"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D1AB81-BFB9-44F4-B52C-4DA3549923A2}">
   <dimension ref="A3:B10"/>
   <sheetViews>
@@ -4480,24 +6509,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="78"/>
+      <c r="B3" s="92"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="92"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="69"/>
+      <c r="B8" s="83"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -4524,7 +6553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C14785-BFAD-4B80-A69B-51C17300DBC0}">
   <dimension ref="A2:I23"/>
   <sheetViews>
@@ -4540,11 +6569,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
@@ -4553,9 +6582,9 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
@@ -4564,9 +6593,9 @@
       <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
@@ -4575,11 +6604,11 @@
       <c r="I4" s="13"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -4607,10 +6636,10 @@
       <c r="A9" s="12">
         <v>1</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="82" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4618,99 +6647,99 @@
       <c r="A10" s="12">
         <v>2</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="68"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="82"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>3</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="68"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="82"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>4</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="68"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="82"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>5</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="68"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="82"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>6</v>
       </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="68"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="82"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>7</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="68"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="82"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>8</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="68"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="82"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>9</v>
       </c>
-      <c r="B17" s="80"/>
-      <c r="C17" s="68"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="82"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>10</v>
       </c>
-      <c r="B18" s="80"/>
-      <c r="C18" s="68"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="82"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>11</v>
       </c>
-      <c r="B19" s="80"/>
-      <c r="C19" s="68"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="82"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>12</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="68"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="82"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>13</v>
       </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="68"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="82"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>14</v>
       </c>
-      <c r="B22" s="80"/>
-      <c r="C22" s="68"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="82"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="80"/>
-      <c r="C23" s="68"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="4">
